--- a/BackTest/2020-01-22 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-22 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M117"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -734,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -769,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -804,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -921,6 +939,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,6 +981,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1003,6 +1023,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1038,6 +1059,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1073,6 +1095,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1108,6 +1131,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1143,6 +1167,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,6 +1203,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1213,6 +1239,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,6 +1275,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1283,6 +1311,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1318,6 +1347,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1345,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1353,6 +1383,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1388,6 +1419,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1415,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1423,6 +1455,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1458,6 +1491,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1493,6 +1527,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1528,6 +1563,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1563,6 +1599,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1598,6 +1635,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1633,6 +1671,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1668,6 +1707,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1703,6 +1743,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1738,6 +1779,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1773,6 +1815,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1808,6 +1851,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1843,6 +1887,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1878,6 +1923,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1913,6 +1959,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1948,6 +1995,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1983,6 +2031,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2018,6 +2067,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2045,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2053,6 +2103,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2088,6 +2139,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2115,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2123,6 +2175,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2158,6 +2211,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2193,6 +2247,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2228,6 +2283,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2263,6 +2319,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2298,6 +2355,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2337,6 +2395,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2380,6 +2439,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2423,6 +2483,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2466,6 +2527,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2509,6 +2571,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2550,6 +2613,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2591,6 +2655,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2632,6 +2697,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2659,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
@@ -2673,6 +2739,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2714,6 +2781,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2755,6 +2823,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2796,6 +2865,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2837,6 +2907,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2878,6 +2949,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2919,6 +2991,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2962,6 +3035,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3003,6 +3077,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3044,6 +3119,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3085,6 +3161,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3126,6 +3203,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3167,6 +3245,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3210,6 +3289,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3251,6 +3331,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3294,6 +3375,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3337,6 +3419,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3380,6 +3463,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3421,6 +3505,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3462,6 +3547,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3503,6 +3589,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3546,6 +3633,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3587,6 +3675,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3628,6 +3717,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3671,6 +3761,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3714,6 +3805,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3757,6 +3849,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3800,6 +3893,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3843,6 +3937,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3886,6 +3981,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3927,6 +4023,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3968,6 +4065,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4009,6 +4107,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4050,6 +4149,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4091,6 +4191,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4132,6 +4233,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4173,6 +4275,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4216,6 +4319,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4257,6 +4361,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4298,6 +4403,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4339,6 +4445,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4366,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
@@ -4374,11 +4481,14 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>1.018918575063613</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1.022034332564694</v>
       </c>
     </row>
     <row r="105">
@@ -4410,17 +4520,12 @@
         <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>393</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>1.027569974554708</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4456,6 +4561,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4491,6 +4597,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4526,6 +4633,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4553,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4561,6 +4669,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4596,6 +4705,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4631,6 +4741,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4658,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4666,6 +4777,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4701,6 +4813,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4736,6 +4849,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4763,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4771,6 +4885,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4798,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4806,6 +4921,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4833,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4841,6 +4957,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-22 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>393.1</v>
+        <v>395.1</v>
       </c>
       <c r="C2" t="n">
-        <v>393.1</v>
+        <v>400.8</v>
       </c>
       <c r="D2" t="n">
-        <v>393.1</v>
+        <v>400.8</v>
       </c>
       <c r="E2" t="n">
-        <v>393.1</v>
+        <v>393.5</v>
       </c>
       <c r="F2" t="n">
-        <v>824.6567</v>
+        <v>3637.1625</v>
       </c>
       <c r="G2" t="n">
-        <v>-33611.69167411</v>
+        <v>-19425.99257411</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>393.1</v>
+        <v>400.7</v>
       </c>
       <c r="C3" t="n">
-        <v>397</v>
+        <v>400.7</v>
       </c>
       <c r="D3" t="n">
-        <v>397</v>
+        <v>400.7</v>
       </c>
       <c r="E3" t="n">
-        <v>393.1</v>
+        <v>400.7</v>
       </c>
       <c r="F3" t="n">
-        <v>425.7342</v>
+        <v>127.7836</v>
       </c>
       <c r="G3" t="n">
-        <v>-33185.95747411</v>
+        <v>-19553.77617411</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>394.8</v>
+        <v>398.9</v>
       </c>
       <c r="C4" t="n">
-        <v>394.8</v>
+        <v>398.9</v>
       </c>
       <c r="D4" t="n">
-        <v>394.8</v>
+        <v>398.9</v>
       </c>
       <c r="E4" t="n">
-        <v>394.8</v>
+        <v>398.9</v>
       </c>
       <c r="F4" t="n">
-        <v>562.481</v>
+        <v>245.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-33748.43847411</v>
+        <v>-19799.01117411</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394</v>
+        <v>398.9</v>
       </c>
       <c r="C5" t="n">
-        <v>394</v>
+        <v>398.9</v>
       </c>
       <c r="D5" t="n">
-        <v>394</v>
+        <v>398.9</v>
       </c>
       <c r="E5" t="n">
-        <v>394</v>
+        <v>398.9</v>
       </c>
       <c r="F5" t="n">
-        <v>259.0777</v>
+        <v>1654.3235</v>
       </c>
       <c r="G5" t="n">
-        <v>-34007.51617411</v>
+        <v>-19799.01117411</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394</v>
+        <v>393.1</v>
       </c>
       <c r="C6" t="n">
-        <v>394.9</v>
+        <v>393</v>
       </c>
       <c r="D6" t="n">
-        <v>394.9</v>
+        <v>393.1</v>
       </c>
       <c r="E6" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F6" t="n">
-        <v>1944.447</v>
+        <v>1147.7561</v>
       </c>
       <c r="G6" t="n">
-        <v>-32063.06917411</v>
+        <v>-20946.76727411</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>394.9</v>
+        <v>392.3</v>
       </c>
       <c r="C7" t="n">
-        <v>394.9</v>
+        <v>396.7</v>
       </c>
       <c r="D7" t="n">
-        <v>394.9</v>
+        <v>396.7</v>
       </c>
       <c r="E7" t="n">
-        <v>394.9</v>
+        <v>391</v>
       </c>
       <c r="F7" t="n">
-        <v>951.0773</v>
+        <v>5001.9163</v>
       </c>
       <c r="G7" t="n">
-        <v>-32063.06917411</v>
+        <v>-15944.85097411</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>394.9</v>
+        <v>391.1</v>
       </c>
       <c r="C8" t="n">
-        <v>394.9</v>
+        <v>391</v>
       </c>
       <c r="D8" t="n">
-        <v>394.9</v>
+        <v>391.1</v>
       </c>
       <c r="E8" t="n">
-        <v>394.9</v>
+        <v>391</v>
       </c>
       <c r="F8" t="n">
-        <v>634.0515</v>
+        <v>2441.0799</v>
       </c>
       <c r="G8" t="n">
-        <v>-32063.06917411</v>
+        <v>-18385.93087411</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>394.9</v>
+        <v>396.7</v>
       </c>
       <c r="C9" t="n">
-        <v>394</v>
+        <v>396.7</v>
       </c>
       <c r="D9" t="n">
-        <v>394.9</v>
+        <v>396.7</v>
       </c>
       <c r="E9" t="n">
-        <v>394</v>
+        <v>396.7</v>
       </c>
       <c r="F9" t="n">
-        <v>845.402</v>
+        <v>18.0756</v>
       </c>
       <c r="G9" t="n">
-        <v>-32908.47117411</v>
+        <v>-18367.85527411</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>395.6</v>
+        <v>391.1</v>
       </c>
       <c r="C10" t="n">
-        <v>395.6</v>
+        <v>391.1</v>
       </c>
       <c r="D10" t="n">
-        <v>395.6</v>
+        <v>391.1</v>
       </c>
       <c r="E10" t="n">
-        <v>395.6</v>
+        <v>391.1</v>
       </c>
       <c r="F10" t="n">
-        <v>60.7187</v>
+        <v>491.4232</v>
       </c>
       <c r="G10" t="n">
-        <v>-32847.75247411001</v>
+        <v>-18859.27847411</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>395.5</v>
+        <v>391.1</v>
       </c>
       <c r="C11" t="n">
-        <v>395.5</v>
+        <v>389.8</v>
       </c>
       <c r="D11" t="n">
-        <v>395.5</v>
+        <v>391.1</v>
       </c>
       <c r="E11" t="n">
-        <v>395.5</v>
+        <v>389.8</v>
       </c>
       <c r="F11" t="n">
-        <v>302.1125</v>
+        <v>4944.0952</v>
       </c>
       <c r="G11" t="n">
-        <v>-33149.86497411001</v>
+        <v>-23803.37367411</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>395.5</v>
+        <v>389.9</v>
       </c>
       <c r="C12" t="n">
-        <v>395.5</v>
+        <v>389.8</v>
       </c>
       <c r="D12" t="n">
-        <v>395.5</v>
+        <v>389.9</v>
       </c>
       <c r="E12" t="n">
-        <v>395.5</v>
+        <v>389.8</v>
       </c>
       <c r="F12" t="n">
-        <v>127.8875</v>
+        <v>4155.3136</v>
       </c>
       <c r="G12" t="n">
-        <v>-33149.86497411001</v>
+        <v>-23803.37367411</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>394</v>
+        <v>389.8</v>
       </c>
       <c r="C13" t="n">
-        <v>394</v>
+        <v>389.8</v>
       </c>
       <c r="D13" t="n">
-        <v>394</v>
+        <v>389.8</v>
       </c>
       <c r="E13" t="n">
-        <v>394</v>
+        <v>389.8</v>
       </c>
       <c r="F13" t="n">
-        <v>566.7754</v>
+        <v>591.571</v>
       </c>
       <c r="G13" t="n">
-        <v>-33716.64037411001</v>
+        <v>-23803.37367411</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>394</v>
+        <v>389.9</v>
       </c>
       <c r="C14" t="n">
-        <v>394.9</v>
+        <v>390</v>
       </c>
       <c r="D14" t="n">
-        <v>394.9</v>
+        <v>390</v>
       </c>
       <c r="E14" t="n">
-        <v>394</v>
+        <v>389.9</v>
       </c>
       <c r="F14" t="n">
-        <v>187.5745</v>
+        <v>1984.9622</v>
       </c>
       <c r="G14" t="n">
-        <v>-33529.06587411001</v>
+        <v>-21818.41147411</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,35 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394</v>
+        <v>390.5</v>
       </c>
       <c r="C15" t="n">
-        <v>394</v>
+        <v>389.8</v>
       </c>
       <c r="D15" t="n">
-        <v>394</v>
+        <v>390.5</v>
       </c>
       <c r="E15" t="n">
-        <v>394</v>
+        <v>389.8</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2192</v>
+        <v>3917.8978</v>
       </c>
       <c r="G15" t="n">
-        <v>-33769.28507411</v>
+        <v>-25736.30927411</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>394.9</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -946,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394</v>
+        <v>396.7</v>
       </c>
       <c r="C16" t="n">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D16" t="n">
-        <v>394</v>
+        <v>396.7</v>
       </c>
       <c r="E16" t="n">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F16" t="n">
-        <v>603.2104</v>
+        <v>6046.446</v>
       </c>
       <c r="G16" t="n">
-        <v>-33769.28507411</v>
+        <v>-19689.86327411</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,14 +966,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -988,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>393.4</v>
+        <v>395</v>
       </c>
       <c r="C17" t="n">
-        <v>393.4</v>
+        <v>395.7</v>
       </c>
       <c r="D17" t="n">
-        <v>393.4</v>
+        <v>395.7</v>
       </c>
       <c r="E17" t="n">
-        <v>393.4</v>
+        <v>395</v>
       </c>
       <c r="F17" t="n">
-        <v>82.5043</v>
+        <v>1408.6823</v>
       </c>
       <c r="G17" t="n">
-        <v>-33851.78937411001</v>
+        <v>-18281.18097411</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1012,14 +1002,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1030,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>393.2</v>
+        <v>395.7</v>
       </c>
       <c r="C18" t="n">
-        <v>393.2</v>
+        <v>397.9</v>
       </c>
       <c r="D18" t="n">
-        <v>393.2</v>
+        <v>397.9</v>
       </c>
       <c r="E18" t="n">
-        <v>393.2</v>
+        <v>395.7</v>
       </c>
       <c r="F18" t="n">
-        <v>1068.593</v>
+        <v>1251.1902</v>
       </c>
       <c r="G18" t="n">
-        <v>-34920.38237411001</v>
+        <v>-17029.99077411</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1066,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>393.3</v>
+        <v>397.9</v>
       </c>
       <c r="C19" t="n">
-        <v>393.4</v>
+        <v>399.2</v>
       </c>
       <c r="D19" t="n">
-        <v>393.4</v>
+        <v>399.2</v>
       </c>
       <c r="E19" t="n">
-        <v>393.3</v>
+        <v>397.9</v>
       </c>
       <c r="F19" t="n">
-        <v>520</v>
+        <v>2480</v>
       </c>
       <c r="G19" t="n">
-        <v>-34400.38237411001</v>
+        <v>-14549.99077411</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1102,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>393.3</v>
+        <v>399.2</v>
       </c>
       <c r="C20" t="n">
-        <v>393.3</v>
+        <v>399.2</v>
       </c>
       <c r="D20" t="n">
-        <v>393.3</v>
+        <v>399.2</v>
       </c>
       <c r="E20" t="n">
-        <v>393.2</v>
+        <v>399.2</v>
       </c>
       <c r="F20" t="n">
-        <v>461.7929</v>
+        <v>208.0624</v>
       </c>
       <c r="G20" t="n">
-        <v>-34862.17527411001</v>
+        <v>-14549.99077411</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1138,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>391.9</v>
+        <v>399.2</v>
       </c>
       <c r="C21" t="n">
-        <v>390.3</v>
+        <v>399.2</v>
       </c>
       <c r="D21" t="n">
-        <v>391.9</v>
+        <v>399.2</v>
       </c>
       <c r="E21" t="n">
-        <v>390.3</v>
+        <v>399.2</v>
       </c>
       <c r="F21" t="n">
-        <v>832.2246</v>
+        <v>93.50579999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-35694.39987411001</v>
+        <v>-14549.99077411</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1174,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>393.4</v>
+        <v>400</v>
       </c>
       <c r="C22" t="n">
-        <v>393.4</v>
+        <v>400</v>
       </c>
       <c r="D22" t="n">
-        <v>393.4</v>
+        <v>400</v>
       </c>
       <c r="E22" t="n">
-        <v>393.4</v>
+        <v>400</v>
       </c>
       <c r="F22" t="n">
-        <v>53.7683</v>
+        <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>-35640.63157411</v>
+        <v>-14499.99077411</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1210,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>394.9</v>
+        <v>400</v>
       </c>
       <c r="C23" t="n">
-        <v>394.9</v>
+        <v>399.2</v>
       </c>
       <c r="D23" t="n">
-        <v>394.9</v>
+        <v>400</v>
       </c>
       <c r="E23" t="n">
-        <v>394.9</v>
+        <v>399.2</v>
       </c>
       <c r="F23" t="n">
-        <v>2.9541</v>
+        <v>1382.375</v>
       </c>
       <c r="G23" t="n">
-        <v>-35637.67747411</v>
+        <v>-15882.36577411</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1246,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>392</v>
+        <v>396.3</v>
       </c>
       <c r="C24" t="n">
-        <v>392</v>
+        <v>389.8</v>
       </c>
       <c r="D24" t="n">
-        <v>392</v>
+        <v>396.3</v>
       </c>
       <c r="E24" t="n">
-        <v>392</v>
+        <v>389.8</v>
       </c>
       <c r="F24" t="n">
-        <v>556.7504</v>
+        <v>14442.6962</v>
       </c>
       <c r="G24" t="n">
-        <v>-36194.42787411</v>
+        <v>-30325.06197410999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1282,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C25" t="n">
-        <v>394.8</v>
+        <v>399.2</v>
       </c>
       <c r="D25" t="n">
-        <v>394.8</v>
+        <v>399.2</v>
       </c>
       <c r="E25" t="n">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="F25" t="n">
-        <v>452.2728</v>
+        <v>682.0984999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-35742.15507411</v>
+        <v>-29642.96347410999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1318,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>398.9</v>
+        <v>399.2</v>
       </c>
       <c r="C26" t="n">
-        <v>398.9</v>
+        <v>399.2</v>
       </c>
       <c r="D26" t="n">
-        <v>398.9</v>
+        <v>399.2</v>
       </c>
       <c r="E26" t="n">
-        <v>398.9</v>
+        <v>399.2</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1316.912</v>
       </c>
       <c r="G26" t="n">
-        <v>-35740.15507411</v>
+        <v>-29642.96347410999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1354,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>398.9</v>
+        <v>400.8</v>
       </c>
       <c r="C27" t="n">
-        <v>398.9</v>
+        <v>391.5</v>
       </c>
       <c r="D27" t="n">
-        <v>398.9</v>
+        <v>400.8</v>
       </c>
       <c r="E27" t="n">
-        <v>398.9</v>
+        <v>391.5</v>
       </c>
       <c r="F27" t="n">
-        <v>209.5429</v>
+        <v>3606.622</v>
       </c>
       <c r="G27" t="n">
-        <v>-35740.15507411</v>
+        <v>-33249.58547411</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1390,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>396.9</v>
+        <v>396</v>
       </c>
       <c r="C28" t="n">
-        <v>396.9</v>
+        <v>396</v>
       </c>
       <c r="D28" t="n">
-        <v>396.9</v>
+        <v>396</v>
       </c>
       <c r="E28" t="n">
-        <v>396.9</v>
+        <v>396</v>
       </c>
       <c r="F28" t="n">
-        <v>605.9624</v>
+        <v>716.2103</v>
       </c>
       <c r="G28" t="n">
-        <v>-36346.11747411</v>
+        <v>-32533.37517411</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1426,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>394.1</v>
+        <v>395.3</v>
       </c>
       <c r="C29" t="n">
-        <v>394.1</v>
+        <v>395.3</v>
       </c>
       <c r="D29" t="n">
-        <v>394.1</v>
+        <v>395.3</v>
       </c>
       <c r="E29" t="n">
-        <v>394.1</v>
+        <v>395.3</v>
       </c>
       <c r="F29" t="n">
-        <v>202.5149</v>
+        <v>56.6598</v>
       </c>
       <c r="G29" t="n">
-        <v>-36548.63237411</v>
+        <v>-32590.03497411</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1462,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>391.2</v>
+        <v>393</v>
       </c>
       <c r="C30" t="n">
-        <v>391.2</v>
+        <v>394</v>
       </c>
       <c r="D30" t="n">
-        <v>391.2</v>
+        <v>394</v>
       </c>
       <c r="E30" t="n">
-        <v>391.2</v>
+        <v>393</v>
       </c>
       <c r="F30" t="n">
-        <v>7.028</v>
+        <v>197</v>
       </c>
       <c r="G30" t="n">
-        <v>-36555.66037411</v>
+        <v>-32787.03497411</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1498,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>396.9</v>
+        <v>393.1</v>
       </c>
       <c r="C31" t="n">
-        <v>396.9</v>
+        <v>393.1</v>
       </c>
       <c r="D31" t="n">
-        <v>396.9</v>
+        <v>393.1</v>
       </c>
       <c r="E31" t="n">
-        <v>396.9</v>
+        <v>393.1</v>
       </c>
       <c r="F31" t="n">
-        <v>3.1396</v>
+        <v>824.6567</v>
       </c>
       <c r="G31" t="n">
-        <v>-36552.52077410999</v>
+        <v>-33611.69167411</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1534,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>396.8</v>
+        <v>393.1</v>
       </c>
       <c r="C32" t="n">
-        <v>396.8</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>396.8</v>
+        <v>397</v>
       </c>
       <c r="E32" t="n">
-        <v>396.8</v>
+        <v>393.1</v>
       </c>
       <c r="F32" t="n">
-        <v>9.1257</v>
+        <v>425.7342</v>
       </c>
       <c r="G32" t="n">
-        <v>-36561.64647410999</v>
+        <v>-33185.95747411</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1570,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>392.5</v>
+        <v>394.8</v>
       </c>
       <c r="C33" t="n">
-        <v>392.5</v>
+        <v>394.8</v>
       </c>
       <c r="D33" t="n">
-        <v>392.5</v>
+        <v>394.8</v>
       </c>
       <c r="E33" t="n">
-        <v>392.5</v>
+        <v>394.8</v>
       </c>
       <c r="F33" t="n">
-        <v>9</v>
+        <v>562.481</v>
       </c>
       <c r="G33" t="n">
-        <v>-36570.64647410999</v>
+        <v>-33748.43847411</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1606,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>392.5</v>
+        <v>394</v>
       </c>
       <c r="C34" t="n">
-        <v>396.7</v>
+        <v>394</v>
       </c>
       <c r="D34" t="n">
-        <v>396.7</v>
+        <v>394</v>
       </c>
       <c r="E34" t="n">
-        <v>392.5</v>
+        <v>394</v>
       </c>
       <c r="F34" t="n">
-        <v>1.3</v>
+        <v>259.0777</v>
       </c>
       <c r="G34" t="n">
-        <v>-36569.34647410999</v>
+        <v>-34007.51617411</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1642,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>396.6</v>
+        <v>394</v>
       </c>
       <c r="C35" t="n">
-        <v>396.6</v>
+        <v>394.9</v>
       </c>
       <c r="D35" t="n">
-        <v>396.6</v>
+        <v>394.9</v>
       </c>
       <c r="E35" t="n">
-        <v>396.6</v>
+        <v>394</v>
       </c>
       <c r="F35" t="n">
-        <v>396.90115985</v>
+        <v>1944.447</v>
       </c>
       <c r="G35" t="n">
-        <v>-36966.24763395999</v>
+        <v>-32063.06917411</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1678,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>396.9</v>
+        <v>394.9</v>
       </c>
       <c r="C36" t="n">
-        <v>396.9</v>
+        <v>394.9</v>
       </c>
       <c r="D36" t="n">
-        <v>396.9</v>
+        <v>394.9</v>
       </c>
       <c r="E36" t="n">
-        <v>396.9</v>
+        <v>394.9</v>
       </c>
       <c r="F36" t="n">
-        <v>1.3</v>
+        <v>951.0773</v>
       </c>
       <c r="G36" t="n">
-        <v>-36964.94763395999</v>
+        <v>-32063.06917411</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1714,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>396.8</v>
+        <v>394.9</v>
       </c>
       <c r="C37" t="n">
-        <v>396.8</v>
+        <v>394.9</v>
       </c>
       <c r="D37" t="n">
-        <v>396.8</v>
+        <v>394.9</v>
       </c>
       <c r="E37" t="n">
-        <v>396.8</v>
+        <v>394.9</v>
       </c>
       <c r="F37" t="n">
-        <v>620</v>
+        <v>634.0515</v>
       </c>
       <c r="G37" t="n">
-        <v>-37584.94763395999</v>
+        <v>-32063.06917411</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1750,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>396.9</v>
+        <v>394.9</v>
       </c>
       <c r="C38" t="n">
-        <v>396.9</v>
+        <v>394</v>
       </c>
       <c r="D38" t="n">
-        <v>396.9</v>
+        <v>394.9</v>
       </c>
       <c r="E38" t="n">
-        <v>396.9</v>
+        <v>394</v>
       </c>
       <c r="F38" t="n">
-        <v>1.3</v>
+        <v>845.402</v>
       </c>
       <c r="G38" t="n">
-        <v>-37583.64763395998</v>
+        <v>-32908.47117411</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1786,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>395</v>
+        <v>395.6</v>
       </c>
       <c r="C39" t="n">
-        <v>395</v>
+        <v>395.6</v>
       </c>
       <c r="D39" t="n">
-        <v>395</v>
+        <v>395.6</v>
       </c>
       <c r="E39" t="n">
-        <v>395</v>
+        <v>395.6</v>
       </c>
       <c r="F39" t="n">
-        <v>75.1639</v>
+        <v>60.7187</v>
       </c>
       <c r="G39" t="n">
-        <v>-37658.81153395998</v>
+        <v>-32847.75247411001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1822,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="C40" t="n">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="D40" t="n">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="E40" t="n">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="F40" t="n">
-        <v>902.2756000000001</v>
+        <v>302.1125</v>
       </c>
       <c r="G40" t="n">
-        <v>-37658.81153395998</v>
+        <v>-33149.86497411001</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1858,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="C41" t="n">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="D41" t="n">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="E41" t="n">
-        <v>395</v>
+        <v>395.5</v>
       </c>
       <c r="F41" t="n">
-        <v>98.727</v>
+        <v>127.8875</v>
       </c>
       <c r="G41" t="n">
-        <v>-37658.81153395998</v>
+        <v>-33149.86497411001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1894,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C42" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D42" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E42" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F42" t="n">
-        <v>2.1795</v>
+        <v>566.7754</v>
       </c>
       <c r="G42" t="n">
-        <v>-37658.81153395998</v>
+        <v>-33716.64037411001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1930,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>395.8</v>
+        <v>394</v>
       </c>
       <c r="C43" t="n">
-        <v>398.8</v>
+        <v>394.9</v>
       </c>
       <c r="D43" t="n">
-        <v>398.8</v>
+        <v>394.9</v>
       </c>
       <c r="E43" t="n">
-        <v>395.8</v>
+        <v>394</v>
       </c>
       <c r="F43" t="n">
-        <v>554.3434999999999</v>
+        <v>187.5745</v>
       </c>
       <c r="G43" t="n">
-        <v>-37104.46803395998</v>
+        <v>-33529.06587411001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1966,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C44" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D44" t="n">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E44" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F44" t="n">
-        <v>1610</v>
+        <v>240.2192</v>
       </c>
       <c r="G44" t="n">
-        <v>-38714.46803395998</v>
+        <v>-33769.28507411</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2002,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>397.6</v>
+        <v>394</v>
       </c>
       <c r="C45" t="n">
-        <v>397.6</v>
+        <v>394</v>
       </c>
       <c r="D45" t="n">
-        <v>397.6</v>
+        <v>394</v>
       </c>
       <c r="E45" t="n">
-        <v>397.6</v>
+        <v>394</v>
       </c>
       <c r="F45" t="n">
-        <v>78.408</v>
+        <v>603.2104</v>
       </c>
       <c r="G45" t="n">
-        <v>-38636.06003395998</v>
+        <v>-33769.28507411</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2038,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>397.5</v>
+        <v>393.4</v>
       </c>
       <c r="C46" t="n">
-        <v>397.6</v>
+        <v>393.4</v>
       </c>
       <c r="D46" t="n">
-        <v>397.6</v>
+        <v>393.4</v>
       </c>
       <c r="E46" t="n">
-        <v>397.5</v>
+        <v>393.4</v>
       </c>
       <c r="F46" t="n">
-        <v>1834.6771</v>
+        <v>82.5043</v>
       </c>
       <c r="G46" t="n">
-        <v>-38636.06003395998</v>
+        <v>-33851.78937411001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2074,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>397.7</v>
+        <v>393.2</v>
       </c>
       <c r="C47" t="n">
-        <v>397.6</v>
+        <v>393.2</v>
       </c>
       <c r="D47" t="n">
-        <v>397.7</v>
+        <v>393.2</v>
       </c>
       <c r="E47" t="n">
-        <v>397.6</v>
+        <v>393.2</v>
       </c>
       <c r="F47" t="n">
-        <v>204</v>
+        <v>1068.593</v>
       </c>
       <c r="G47" t="n">
-        <v>-38636.06003395998</v>
+        <v>-34920.38237411001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2110,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>397.6</v>
+        <v>393.3</v>
       </c>
       <c r="C48" t="n">
-        <v>397.6</v>
+        <v>393.4</v>
       </c>
       <c r="D48" t="n">
-        <v>397.6</v>
+        <v>393.4</v>
       </c>
       <c r="E48" t="n">
-        <v>397.6</v>
+        <v>393.3</v>
       </c>
       <c r="F48" t="n">
-        <v>547.96</v>
+        <v>520</v>
       </c>
       <c r="G48" t="n">
-        <v>-38636.06003395998</v>
+        <v>-34400.38237411001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2146,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>397.6</v>
+        <v>393.3</v>
       </c>
       <c r="C49" t="n">
-        <v>397.6</v>
+        <v>393.3</v>
       </c>
       <c r="D49" t="n">
-        <v>397.6</v>
+        <v>393.3</v>
       </c>
       <c r="E49" t="n">
-        <v>397.6</v>
+        <v>393.2</v>
       </c>
       <c r="F49" t="n">
-        <v>8906.210499999999</v>
+        <v>461.7929</v>
       </c>
       <c r="G49" t="n">
-        <v>-38636.06003395998</v>
+        <v>-34862.17527411001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2182,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>395</v>
+        <v>391.9</v>
       </c>
       <c r="C50" t="n">
-        <v>395</v>
+        <v>390.3</v>
       </c>
       <c r="D50" t="n">
-        <v>395</v>
+        <v>391.9</v>
       </c>
       <c r="E50" t="n">
-        <v>395</v>
+        <v>390.3</v>
       </c>
       <c r="F50" t="n">
-        <v>1990</v>
+        <v>832.2246</v>
       </c>
       <c r="G50" t="n">
-        <v>-40626.06003395998</v>
+        <v>-35694.39987411001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2218,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>395</v>
+        <v>393.4</v>
       </c>
       <c r="C51" t="n">
-        <v>395</v>
+        <v>393.4</v>
       </c>
       <c r="D51" t="n">
-        <v>395</v>
+        <v>393.4</v>
       </c>
       <c r="E51" t="n">
-        <v>395</v>
+        <v>393.4</v>
       </c>
       <c r="F51" t="n">
-        <v>3368.4142</v>
+        <v>53.7683</v>
       </c>
       <c r="G51" t="n">
-        <v>-40626.06003395998</v>
+        <v>-35640.63157411</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2254,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>394.1</v>
+        <v>394.9</v>
       </c>
       <c r="C52" t="n">
-        <v>394.1</v>
+        <v>394.9</v>
       </c>
       <c r="D52" t="n">
-        <v>394.1</v>
+        <v>394.9</v>
       </c>
       <c r="E52" t="n">
-        <v>394.1</v>
+        <v>394.9</v>
       </c>
       <c r="F52" t="n">
-        <v>56.8922</v>
+        <v>2.9541</v>
       </c>
       <c r="G52" t="n">
-        <v>-40682.95223395998</v>
+        <v>-35637.67747411</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2290,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C53" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D53" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E53" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F53" t="n">
-        <v>43.2918</v>
+        <v>556.7504</v>
       </c>
       <c r="G53" t="n">
-        <v>-40726.24403395998</v>
+        <v>-36194.42787411</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2326,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C54" t="n">
-        <v>393</v>
+        <v>394.8</v>
       </c>
       <c r="D54" t="n">
-        <v>393</v>
+        <v>394.8</v>
       </c>
       <c r="E54" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F54" t="n">
-        <v>734.9316</v>
+        <v>452.2728</v>
       </c>
       <c r="G54" t="n">
-        <v>-40726.24403395998</v>
+        <v>-35742.15507411</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2362,35 +2346,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>394.9</v>
+        <v>398.9</v>
       </c>
       <c r="C55" t="n">
-        <v>394.9</v>
+        <v>398.9</v>
       </c>
       <c r="D55" t="n">
-        <v>394.9</v>
+        <v>398.9</v>
       </c>
       <c r="E55" t="n">
-        <v>394.9</v>
+        <v>398.9</v>
       </c>
       <c r="F55" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>-40724.94403395998</v>
+        <v>-35740.15507411</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>393</v>
-      </c>
-      <c r="K55" t="n">
-        <v>393</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
@@ -2402,40 +2382,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>395.6</v>
+        <v>398.9</v>
       </c>
       <c r="C56" t="n">
-        <v>395.6</v>
+        <v>398.9</v>
       </c>
       <c r="D56" t="n">
-        <v>395.6</v>
+        <v>398.9</v>
       </c>
       <c r="E56" t="n">
-        <v>395.6</v>
+        <v>398.9</v>
       </c>
       <c r="F56" t="n">
-        <v>1.3</v>
+        <v>209.5429</v>
       </c>
       <c r="G56" t="n">
-        <v>-40723.64403395997</v>
+        <v>-35740.15507411</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K56" t="n">
-        <v>393</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2446,40 +2418,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>395.5</v>
+        <v>396.9</v>
       </c>
       <c r="C57" t="n">
-        <v>396.6</v>
+        <v>396.9</v>
       </c>
       <c r="D57" t="n">
-        <v>396.6</v>
+        <v>396.9</v>
       </c>
       <c r="E57" t="n">
-        <v>395.5</v>
+        <v>396.9</v>
       </c>
       <c r="F57" t="n">
-        <v>1421.36106908</v>
+        <v>605.9624</v>
       </c>
       <c r="G57" t="n">
-        <v>-39302.28296487997</v>
+        <v>-36346.11747411</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>395.6</v>
-      </c>
-      <c r="K57" t="n">
-        <v>393</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2490,40 +2454,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>394.9</v>
+        <v>394.1</v>
       </c>
       <c r="C58" t="n">
-        <v>397.7</v>
+        <v>394.1</v>
       </c>
       <c r="D58" t="n">
-        <v>397.7</v>
+        <v>394.1</v>
       </c>
       <c r="E58" t="n">
-        <v>394.9</v>
+        <v>394.1</v>
       </c>
       <c r="F58" t="n">
-        <v>4349.8273</v>
+        <v>202.5149</v>
       </c>
       <c r="G58" t="n">
-        <v>-34952.45566487998</v>
+        <v>-36548.63237411</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="K58" t="n">
-        <v>393</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2534,40 +2490,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>397.5</v>
+        <v>391.2</v>
       </c>
       <c r="C59" t="n">
-        <v>397.6</v>
+        <v>391.2</v>
       </c>
       <c r="D59" t="n">
-        <v>397.6</v>
+        <v>391.2</v>
       </c>
       <c r="E59" t="n">
-        <v>397.5</v>
+        <v>391.2</v>
       </c>
       <c r="F59" t="n">
-        <v>552</v>
+        <v>7.028</v>
       </c>
       <c r="G59" t="n">
-        <v>-35504.45566487998</v>
+        <v>-36555.66037411</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>397.7</v>
-      </c>
-      <c r="K59" t="n">
-        <v>393</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2578,38 +2526,36 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>394.9</v>
+        <v>396.9</v>
       </c>
       <c r="C60" t="n">
-        <v>394.9</v>
+        <v>396.9</v>
       </c>
       <c r="D60" t="n">
-        <v>394.9</v>
+        <v>396.9</v>
       </c>
       <c r="E60" t="n">
-        <v>394.9</v>
+        <v>396.9</v>
       </c>
       <c r="F60" t="n">
-        <v>9.99</v>
+        <v>3.1396</v>
       </c>
       <c r="G60" t="n">
-        <v>-35514.44566487998</v>
+        <v>-36552.52077410999</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>391.2</v>
+      </c>
       <c r="K60" t="n">
-        <v>393</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>391.2</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2620,22 +2566,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>397.6</v>
+        <v>396.8</v>
       </c>
       <c r="C61" t="n">
-        <v>397.6</v>
+        <v>396.8</v>
       </c>
       <c r="D61" t="n">
-        <v>397.6</v>
+        <v>396.8</v>
       </c>
       <c r="E61" t="n">
-        <v>397.6</v>
+        <v>396.8</v>
       </c>
       <c r="F61" t="n">
-        <v>1.7629</v>
+        <v>9.1257</v>
       </c>
       <c r="G61" t="n">
-        <v>-35512.68276487997</v>
+        <v>-36561.64647410999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2645,11 +2591,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>393</v>
+        <v>391.2</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2662,22 +2608,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>397.6</v>
+        <v>392.5</v>
       </c>
       <c r="C62" t="n">
-        <v>397.6</v>
+        <v>392.5</v>
       </c>
       <c r="D62" t="n">
-        <v>397.6</v>
+        <v>392.5</v>
       </c>
       <c r="E62" t="n">
-        <v>397.6</v>
+        <v>392.5</v>
       </c>
       <c r="F62" t="n">
-        <v>99.407</v>
+        <v>9</v>
       </c>
       <c r="G62" t="n">
-        <v>-35512.68276487997</v>
+        <v>-36570.64647410999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2687,11 +2633,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>393</v>
+        <v>391.2</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -2704,38 +2650,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>395.4</v>
+        <v>392.5</v>
       </c>
       <c r="C63" t="n">
-        <v>396.9</v>
+        <v>396.7</v>
       </c>
       <c r="D63" t="n">
-        <v>396.9</v>
+        <v>396.7</v>
       </c>
       <c r="E63" t="n">
-        <v>395.4</v>
+        <v>392.5</v>
       </c>
       <c r="F63" t="n">
-        <v>6.5</v>
+        <v>1.3</v>
       </c>
       <c r="G63" t="n">
-        <v>-35519.18276487997</v>
+        <v>-36569.34647410999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>393</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2746,22 +2686,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>396.8</v>
+        <v>396.6</v>
       </c>
       <c r="C64" t="n">
-        <v>397.6</v>
+        <v>396.6</v>
       </c>
       <c r="D64" t="n">
-        <v>397.6</v>
+        <v>396.6</v>
       </c>
       <c r="E64" t="n">
-        <v>396.8</v>
+        <v>396.6</v>
       </c>
       <c r="F64" t="n">
-        <v>1070.0749</v>
+        <v>396.90115985</v>
       </c>
       <c r="G64" t="n">
-        <v>-34449.10786487997</v>
+        <v>-36966.24763395999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2770,14 +2710,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>393</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2788,22 +2722,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>397.6</v>
+        <v>396.9</v>
       </c>
       <c r="C65" t="n">
-        <v>397.6</v>
+        <v>396.9</v>
       </c>
       <c r="D65" t="n">
-        <v>397.6</v>
+        <v>396.9</v>
       </c>
       <c r="E65" t="n">
-        <v>397.6</v>
+        <v>396.9</v>
       </c>
       <c r="F65" t="n">
-        <v>26.8749</v>
+        <v>1.3</v>
       </c>
       <c r="G65" t="n">
-        <v>-34449.10786487997</v>
+        <v>-36964.94763395999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2812,14 +2746,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>393</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2830,22 +2758,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>397.6</v>
+        <v>396.8</v>
       </c>
       <c r="C66" t="n">
-        <v>393.4</v>
+        <v>396.8</v>
       </c>
       <c r="D66" t="n">
-        <v>397.6</v>
+        <v>396.8</v>
       </c>
       <c r="E66" t="n">
-        <v>390.1</v>
+        <v>396.8</v>
       </c>
       <c r="F66" t="n">
-        <v>1294.63</v>
+        <v>620</v>
       </c>
       <c r="G66" t="n">
-        <v>-35743.73786487997</v>
+        <v>-37584.94763395999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2854,14 +2782,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>393</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2872,22 +2794,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>396.6</v>
+        <v>396.9</v>
       </c>
       <c r="C67" t="n">
-        <v>396.6</v>
+        <v>396.9</v>
       </c>
       <c r="D67" t="n">
-        <v>396.6</v>
+        <v>396.9</v>
       </c>
       <c r="E67" t="n">
-        <v>396.6</v>
+        <v>396.9</v>
       </c>
       <c r="F67" t="n">
-        <v>30</v>
+        <v>1.3</v>
       </c>
       <c r="G67" t="n">
-        <v>-35713.73786487997</v>
+        <v>-37583.64763395998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2896,14 +2818,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>393</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2914,22 +2830,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>393.4</v>
+        <v>395</v>
       </c>
       <c r="C68" t="n">
-        <v>390.1</v>
+        <v>395</v>
       </c>
       <c r="D68" t="n">
-        <v>393.4</v>
+        <v>395</v>
       </c>
       <c r="E68" t="n">
-        <v>390.1</v>
+        <v>395</v>
       </c>
       <c r="F68" t="n">
-        <v>4339.8273</v>
+        <v>75.1639</v>
       </c>
       <c r="G68" t="n">
-        <v>-40053.56516487997</v>
+        <v>-37658.81153395998</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2938,14 +2854,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>393</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2956,22 +2866,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>396.6</v>
+        <v>395</v>
       </c>
       <c r="C69" t="n">
-        <v>396.6</v>
+        <v>395</v>
       </c>
       <c r="D69" t="n">
-        <v>396.6</v>
+        <v>395</v>
       </c>
       <c r="E69" t="n">
-        <v>396.6</v>
+        <v>395</v>
       </c>
       <c r="F69" t="n">
-        <v>1.3</v>
+        <v>902.2756000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-40052.26516487997</v>
+        <v>-37658.81153395998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2980,14 +2890,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>393</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2998,40 +2902,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C70" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D70" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E70" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F70" t="n">
-        <v>1520.5744</v>
+        <v>98.727</v>
       </c>
       <c r="G70" t="n">
-        <v>-41572.83956487996</v>
+        <v>-37658.81153395998</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="K70" t="n">
-        <v>393</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3042,22 +2938,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C71" t="n">
-        <v>396.6</v>
+        <v>395</v>
       </c>
       <c r="D71" t="n">
-        <v>396.6</v>
+        <v>395</v>
       </c>
       <c r="E71" t="n">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F71" t="n">
-        <v>1690.0554</v>
+        <v>2.1795</v>
       </c>
       <c r="G71" t="n">
-        <v>-39882.78416487997</v>
+        <v>-37658.81153395998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3066,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>393</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3084,22 +2974,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>393.5</v>
+        <v>395.8</v>
       </c>
       <c r="C72" t="n">
-        <v>394.8</v>
+        <v>398.8</v>
       </c>
       <c r="D72" t="n">
-        <v>394.8</v>
+        <v>398.8</v>
       </c>
       <c r="E72" t="n">
-        <v>393.5</v>
+        <v>395.8</v>
       </c>
       <c r="F72" t="n">
-        <v>622.7421210700001</v>
+        <v>554.3434999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>-40505.52628594996</v>
+        <v>-37104.46803395998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3108,14 +2998,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>393</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3126,22 +3010,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>394.6</v>
+        <v>396</v>
       </c>
       <c r="C73" t="n">
-        <v>394.6</v>
+        <v>395</v>
       </c>
       <c r="D73" t="n">
-        <v>394.6</v>
+        <v>396</v>
       </c>
       <c r="E73" t="n">
-        <v>394.6</v>
+        <v>395</v>
       </c>
       <c r="F73" t="n">
-        <v>2.5298</v>
+        <v>1610</v>
       </c>
       <c r="G73" t="n">
-        <v>-40508.05608594996</v>
+        <v>-38714.46803395998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3150,14 +3034,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>393</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3168,22 +3046,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>393.6</v>
+        <v>397.6</v>
       </c>
       <c r="C74" t="n">
-        <v>394.6</v>
+        <v>397.6</v>
       </c>
       <c r="D74" t="n">
-        <v>394.6</v>
+        <v>397.6</v>
       </c>
       <c r="E74" t="n">
-        <v>393.6</v>
+        <v>397.6</v>
       </c>
       <c r="F74" t="n">
-        <v>2800.2</v>
+        <v>78.408</v>
       </c>
       <c r="G74" t="n">
-        <v>-40508.05608594996</v>
+        <v>-38636.06003395998</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3192,14 +3070,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>393</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3210,22 +3082,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>393.6</v>
+        <v>397.5</v>
       </c>
       <c r="C75" t="n">
-        <v>393.8</v>
+        <v>397.6</v>
       </c>
       <c r="D75" t="n">
-        <v>394.9</v>
+        <v>397.6</v>
       </c>
       <c r="E75" t="n">
-        <v>393.6</v>
+        <v>397.5</v>
       </c>
       <c r="F75" t="n">
-        <v>1071.3659</v>
+        <v>1834.6771</v>
       </c>
       <c r="G75" t="n">
-        <v>-41579.42198594996</v>
+        <v>-38636.06003395998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3234,14 +3106,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>393</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3252,40 +3118,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>393.8</v>
+        <v>397.7</v>
       </c>
       <c r="C76" t="n">
-        <v>393.2</v>
+        <v>397.6</v>
       </c>
       <c r="D76" t="n">
-        <v>393.9</v>
+        <v>397.7</v>
       </c>
       <c r="E76" t="n">
-        <v>393.2</v>
+        <v>397.6</v>
       </c>
       <c r="F76" t="n">
-        <v>405.0596</v>
+        <v>204</v>
       </c>
       <c r="G76" t="n">
-        <v>-41984.48158594996</v>
+        <v>-38636.06003395998</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>393.8</v>
-      </c>
-      <c r="K76" t="n">
-        <v>393</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3296,22 +3154,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>393.2</v>
+        <v>397.6</v>
       </c>
       <c r="C77" t="n">
-        <v>392</v>
+        <v>397.6</v>
       </c>
       <c r="D77" t="n">
-        <v>393.2</v>
+        <v>397.6</v>
       </c>
       <c r="E77" t="n">
-        <v>392</v>
+        <v>397.6</v>
       </c>
       <c r="F77" t="n">
-        <v>10.6338</v>
+        <v>547.96</v>
       </c>
       <c r="G77" t="n">
-        <v>-41995.11538594996</v>
+        <v>-38636.06003395998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3320,14 +3178,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>393</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3338,40 +3190,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>391.9</v>
+        <v>397.6</v>
       </c>
       <c r="C78" t="n">
-        <v>391.1</v>
+        <v>397.6</v>
       </c>
       <c r="D78" t="n">
-        <v>391.9</v>
+        <v>397.6</v>
       </c>
       <c r="E78" t="n">
-        <v>391.1</v>
+        <v>397.6</v>
       </c>
       <c r="F78" t="n">
-        <v>612.3167</v>
+        <v>8906.210499999999</v>
       </c>
       <c r="G78" t="n">
-        <v>-42607.43208594996</v>
+        <v>-38636.06003395998</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>392</v>
-      </c>
-      <c r="K78" t="n">
-        <v>393</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3382,40 +3226,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>390.2</v>
+        <v>395</v>
       </c>
       <c r="C79" t="n">
-        <v>394.9</v>
+        <v>395</v>
       </c>
       <c r="D79" t="n">
-        <v>394.9</v>
+        <v>395</v>
       </c>
       <c r="E79" t="n">
-        <v>390.2</v>
+        <v>395</v>
       </c>
       <c r="F79" t="n">
-        <v>3709.8409</v>
+        <v>1990</v>
       </c>
       <c r="G79" t="n">
-        <v>-38897.59118594996</v>
+        <v>-40626.06003395998</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>391.1</v>
-      </c>
-      <c r="K79" t="n">
-        <v>393</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3426,40 +3262,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>394.9</v>
+        <v>395</v>
       </c>
       <c r="C80" t="n">
-        <v>394.9</v>
+        <v>395</v>
       </c>
       <c r="D80" t="n">
-        <v>394.9</v>
+        <v>395</v>
       </c>
       <c r="E80" t="n">
-        <v>394.9</v>
+        <v>395</v>
       </c>
       <c r="F80" t="n">
-        <v>90.4105</v>
+        <v>3368.4142</v>
       </c>
       <c r="G80" t="n">
-        <v>-38897.59118594996</v>
+        <v>-40626.06003395998</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K80" t="n">
-        <v>393</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3470,38 +3298,36 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>394.4</v>
+        <v>394.1</v>
       </c>
       <c r="C81" t="n">
-        <v>394.3</v>
+        <v>394.1</v>
       </c>
       <c r="D81" t="n">
-        <v>394.4</v>
+        <v>394.1</v>
       </c>
       <c r="E81" t="n">
-        <v>394.3</v>
+        <v>394.1</v>
       </c>
       <c r="F81" t="n">
-        <v>5.0596</v>
+        <v>56.8922</v>
       </c>
       <c r="G81" t="n">
-        <v>-38902.65078594996</v>
+        <v>-40682.95223395998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>395</v>
+      </c>
       <c r="K81" t="n">
-        <v>393</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3512,36 +3338,38 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>394.2</v>
+        <v>393</v>
       </c>
       <c r="C82" t="n">
-        <v>394.2</v>
+        <v>393</v>
       </c>
       <c r="D82" t="n">
-        <v>394.2</v>
+        <v>393</v>
       </c>
       <c r="E82" t="n">
-        <v>394.2</v>
+        <v>393</v>
       </c>
       <c r="F82" t="n">
-        <v>2.5298</v>
+        <v>43.2918</v>
       </c>
       <c r="G82" t="n">
-        <v>-38905.18058594996</v>
+        <v>-40726.24403395998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>394.1</v>
+      </c>
       <c r="K82" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M82" t="n">
@@ -3554,36 +3382,38 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>394.1</v>
+        <v>393</v>
       </c>
       <c r="C83" t="n">
-        <v>394.1</v>
+        <v>393</v>
       </c>
       <c r="D83" t="n">
-        <v>394.1</v>
+        <v>393</v>
       </c>
       <c r="E83" t="n">
-        <v>394.1</v>
+        <v>393</v>
       </c>
       <c r="F83" t="n">
-        <v>2.5298</v>
+        <v>734.9316</v>
       </c>
       <c r="G83" t="n">
-        <v>-38907.71038594995</v>
+        <v>-40726.24403395998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>393</v>
+      </c>
       <c r="K83" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M83" t="n">
@@ -3596,22 +3426,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>394.3</v>
+        <v>394.9</v>
       </c>
       <c r="C84" t="n">
-        <v>399.7</v>
+        <v>394.9</v>
       </c>
       <c r="D84" t="n">
-        <v>399.7</v>
+        <v>394.9</v>
       </c>
       <c r="E84" t="n">
-        <v>394.3</v>
+        <v>394.9</v>
       </c>
       <c r="F84" t="n">
-        <v>1164.7026</v>
+        <v>1.3</v>
       </c>
       <c r="G84" t="n">
-        <v>-37743.00778594996</v>
+        <v>-40724.94403395998</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -3620,16 +3450,12 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>394.1</v>
+        <v>393</v>
       </c>
       <c r="K84" t="n">
         <v>393</v>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3640,36 +3466,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>395</v>
+        <v>395.6</v>
       </c>
       <c r="C85" t="n">
-        <v>395</v>
+        <v>395.6</v>
       </c>
       <c r="D85" t="n">
-        <v>395</v>
+        <v>395.6</v>
       </c>
       <c r="E85" t="n">
-        <v>395</v>
+        <v>395.6</v>
       </c>
       <c r="F85" t="n">
-        <v>174.74</v>
+        <v>1.3</v>
       </c>
       <c r="G85" t="n">
-        <v>-37917.74778594996</v>
+        <v>-40723.64403395997</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>394.9</v>
+      </c>
       <c r="K85" t="n">
         <v>393</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -3682,36 +3510,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>394.1</v>
+        <v>395.5</v>
       </c>
       <c r="C86" t="n">
-        <v>394.1</v>
+        <v>396.6</v>
       </c>
       <c r="D86" t="n">
-        <v>394.1</v>
+        <v>396.6</v>
       </c>
       <c r="E86" t="n">
-        <v>394.1</v>
+        <v>395.5</v>
       </c>
       <c r="F86" t="n">
-        <v>275</v>
+        <v>1421.36106908</v>
       </c>
       <c r="G86" t="n">
-        <v>-38192.74778594996</v>
+        <v>-39302.28296487997</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>395.6</v>
+      </c>
       <c r="K86" t="n">
         <v>393</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
@@ -3724,22 +3554,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>393.9</v>
+        <v>394.9</v>
       </c>
       <c r="C87" t="n">
-        <v>393.8</v>
+        <v>397.7</v>
       </c>
       <c r="D87" t="n">
-        <v>393.9</v>
+        <v>397.7</v>
       </c>
       <c r="E87" t="n">
-        <v>393.8</v>
+        <v>394.9</v>
       </c>
       <c r="F87" t="n">
-        <v>1562.7062</v>
+        <v>4349.8273</v>
       </c>
       <c r="G87" t="n">
-        <v>-39755.45398594996</v>
+        <v>-34952.45566487998</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3748,14 +3578,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>394.1</v>
+        <v>396.6</v>
       </c>
       <c r="K87" t="n">
         <v>393</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M87" t="n">
@@ -3768,32 +3598,30 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>393.1</v>
+        <v>397.5</v>
       </c>
       <c r="C88" t="n">
-        <v>392.9</v>
+        <v>397.6</v>
       </c>
       <c r="D88" t="n">
-        <v>393.1</v>
+        <v>397.6</v>
       </c>
       <c r="E88" t="n">
-        <v>392.9</v>
+        <v>397.5</v>
       </c>
       <c r="F88" t="n">
-        <v>1793.8432</v>
+        <v>552</v>
       </c>
       <c r="G88" t="n">
-        <v>-41549.29718594996</v>
+        <v>-35504.45566487998</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>393.8</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>393</v>
       </c>
@@ -3812,32 +3640,30 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>392.9</v>
+        <v>394.9</v>
       </c>
       <c r="C89" t="n">
-        <v>392.1</v>
+        <v>394.9</v>
       </c>
       <c r="D89" t="n">
-        <v>392.9</v>
+        <v>394.9</v>
       </c>
       <c r="E89" t="n">
-        <v>392.1</v>
+        <v>394.9</v>
       </c>
       <c r="F89" t="n">
-        <v>732.1371</v>
+        <v>9.99</v>
       </c>
       <c r="G89" t="n">
-        <v>-42281.43428594996</v>
+        <v>-35514.44566487998</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>392.9</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>393</v>
       </c>
@@ -3856,32 +3682,30 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>392.1</v>
+        <v>397.6</v>
       </c>
       <c r="C90" t="n">
-        <v>390.1</v>
+        <v>397.6</v>
       </c>
       <c r="D90" t="n">
-        <v>392.1</v>
+        <v>397.6</v>
       </c>
       <c r="E90" t="n">
-        <v>390.1</v>
+        <v>397.6</v>
       </c>
       <c r="F90" t="n">
-        <v>2388.196</v>
+        <v>1.7629</v>
       </c>
       <c r="G90" t="n">
-        <v>-44669.63028594996</v>
+        <v>-35512.68276487997</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>392.1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>393</v>
       </c>
@@ -3900,32 +3724,30 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>394.1</v>
+        <v>397.6</v>
       </c>
       <c r="C91" t="n">
-        <v>394.1</v>
+        <v>397.6</v>
       </c>
       <c r="D91" t="n">
-        <v>394.1</v>
+        <v>397.6</v>
       </c>
       <c r="E91" t="n">
-        <v>394.1</v>
+        <v>397.6</v>
       </c>
       <c r="F91" t="n">
-        <v>5.3436</v>
+        <v>99.407</v>
       </c>
       <c r="G91" t="n">
-        <v>-44664.28668594996</v>
+        <v>-35512.68276487997</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>390.1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>393</v>
       </c>
@@ -3944,32 +3766,30 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>390.1</v>
+        <v>395.4</v>
       </c>
       <c r="C92" t="n">
-        <v>398.2</v>
+        <v>396.9</v>
       </c>
       <c r="D92" t="n">
-        <v>398.2</v>
+        <v>396.9</v>
       </c>
       <c r="E92" t="n">
-        <v>390.1</v>
+        <v>395.4</v>
       </c>
       <c r="F92" t="n">
-        <v>13941.5952</v>
+        <v>6.5</v>
       </c>
       <c r="G92" t="n">
-        <v>-30722.69148594996</v>
+        <v>-35519.18276487997</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>394.1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>393</v>
       </c>
@@ -3988,22 +3808,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>394.6</v>
+        <v>396.8</v>
       </c>
       <c r="C93" t="n">
-        <v>394.7</v>
+        <v>397.6</v>
       </c>
       <c r="D93" t="n">
-        <v>394.7</v>
+        <v>397.6</v>
       </c>
       <c r="E93" t="n">
-        <v>394.6</v>
+        <v>396.8</v>
       </c>
       <c r="F93" t="n">
-        <v>1138.8634</v>
+        <v>1070.0749</v>
       </c>
       <c r="G93" t="n">
-        <v>-31861.55488594995</v>
+        <v>-34449.10786487997</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4030,22 +3850,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>393.7</v>
+        <v>397.6</v>
       </c>
       <c r="C94" t="n">
-        <v>394.8</v>
+        <v>397.6</v>
       </c>
       <c r="D94" t="n">
-        <v>394.8</v>
+        <v>397.6</v>
       </c>
       <c r="E94" t="n">
-        <v>393.7</v>
+        <v>397.6</v>
       </c>
       <c r="F94" t="n">
-        <v>2658.2584</v>
+        <v>26.8749</v>
       </c>
       <c r="G94" t="n">
-        <v>-29203.29648594996</v>
+        <v>-34449.10786487997</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4072,22 +3892,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>392</v>
+        <v>397.6</v>
       </c>
       <c r="C95" t="n">
-        <v>392</v>
+        <v>393.4</v>
       </c>
       <c r="D95" t="n">
-        <v>392</v>
+        <v>397.6</v>
       </c>
       <c r="E95" t="n">
-        <v>392</v>
+        <v>390.1</v>
       </c>
       <c r="F95" t="n">
-        <v>304.8379</v>
+        <v>1294.63</v>
       </c>
       <c r="G95" t="n">
-        <v>-29508.13438594995</v>
+        <v>-35743.73786487997</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4114,30 +3934,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>392</v>
+        <v>396.6</v>
       </c>
       <c r="C96" t="n">
-        <v>393.9</v>
+        <v>396.6</v>
       </c>
       <c r="D96" t="n">
-        <v>393.9</v>
+        <v>396.6</v>
       </c>
       <c r="E96" t="n">
-        <v>390.6</v>
+        <v>396.6</v>
       </c>
       <c r="F96" t="n">
-        <v>2916.5453</v>
+        <v>30</v>
       </c>
       <c r="G96" t="n">
-        <v>-26591.58908594995</v>
+        <v>-35713.73786487997</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>393.4</v>
+      </c>
       <c r="K96" t="n">
         <v>393</v>
       </c>
@@ -4156,30 +3978,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>392</v>
+        <v>393.4</v>
       </c>
       <c r="C97" t="n">
-        <v>388.6</v>
+        <v>390.1</v>
       </c>
       <c r="D97" t="n">
-        <v>392</v>
+        <v>393.4</v>
       </c>
       <c r="E97" t="n">
-        <v>388.6</v>
+        <v>390.1</v>
       </c>
       <c r="F97" t="n">
-        <v>1138.8634</v>
+        <v>4339.8273</v>
       </c>
       <c r="G97" t="n">
-        <v>-27730.45248594995</v>
+        <v>-40053.56516487997</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>396.6</v>
+      </c>
       <c r="K97" t="n">
         <v>393</v>
       </c>
@@ -4198,30 +4022,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>388.7</v>
+        <v>396.6</v>
       </c>
       <c r="C98" t="n">
-        <v>387.3</v>
+        <v>396.6</v>
       </c>
       <c r="D98" t="n">
-        <v>388.7</v>
+        <v>396.6</v>
       </c>
       <c r="E98" t="n">
-        <v>387.3</v>
+        <v>396.6</v>
       </c>
       <c r="F98" t="n">
-        <v>3515.5503</v>
+        <v>1.3</v>
       </c>
       <c r="G98" t="n">
-        <v>-31246.00278594995</v>
+        <v>-40052.26516487997</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>390.1</v>
+      </c>
       <c r="K98" t="n">
         <v>393</v>
       </c>
@@ -4240,30 +4066,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>388.5</v>
+        <v>393</v>
       </c>
       <c r="C99" t="n">
-        <v>388.4</v>
+        <v>392</v>
       </c>
       <c r="D99" t="n">
-        <v>388.5</v>
+        <v>393</v>
       </c>
       <c r="E99" t="n">
-        <v>388.4</v>
+        <v>392</v>
       </c>
       <c r="F99" t="n">
-        <v>144.8056</v>
+        <v>1520.5744</v>
       </c>
       <c r="G99" t="n">
-        <v>-31101.19718594995</v>
+        <v>-41572.83956487996</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>396.6</v>
+      </c>
       <c r="K99" t="n">
         <v>393</v>
       </c>
@@ -4282,22 +4110,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>388.5</v>
+        <v>392</v>
       </c>
       <c r="C100" t="n">
-        <v>388.5</v>
+        <v>396.6</v>
       </c>
       <c r="D100" t="n">
-        <v>388.5</v>
+        <v>396.6</v>
       </c>
       <c r="E100" t="n">
-        <v>388.5</v>
+        <v>392</v>
       </c>
       <c r="F100" t="n">
-        <v>130.325</v>
+        <v>1690.0554</v>
       </c>
       <c r="G100" t="n">
-        <v>-30970.87218594995</v>
+        <v>-39882.78416487997</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -4306,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>388.4</v>
+        <v>392</v>
       </c>
       <c r="K100" t="n">
         <v>393</v>
@@ -4326,30 +4154,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>393.7</v>
+        <v>393.5</v>
       </c>
       <c r="C101" t="n">
-        <v>393.7</v>
+        <v>394.8</v>
       </c>
       <c r="D101" t="n">
-        <v>393.7</v>
+        <v>394.8</v>
       </c>
       <c r="E101" t="n">
-        <v>393.7</v>
+        <v>393.5</v>
       </c>
       <c r="F101" t="n">
-        <v>1270.0026</v>
+        <v>622.7421210700001</v>
       </c>
       <c r="G101" t="n">
-        <v>-29700.86958594995</v>
+        <v>-40505.52628594996</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>396.6</v>
+      </c>
       <c r="K101" t="n">
         <v>393</v>
       </c>
@@ -4368,22 +4198,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>393.6</v>
+        <v>394.6</v>
       </c>
       <c r="C102" t="n">
-        <v>394.8</v>
+        <v>394.6</v>
       </c>
       <c r="D102" t="n">
-        <v>394.8</v>
+        <v>394.6</v>
       </c>
       <c r="E102" t="n">
-        <v>390</v>
+        <v>394.6</v>
       </c>
       <c r="F102" t="n">
-        <v>15409.3015</v>
+        <v>2.5298</v>
       </c>
       <c r="G102" t="n">
-        <v>-14291.56808594995</v>
+        <v>-40508.05608594996</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4410,30 +4240,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>396</v>
+        <v>393.6</v>
       </c>
       <c r="C103" t="n">
-        <v>400.8</v>
+        <v>394.6</v>
       </c>
       <c r="D103" t="n">
-        <v>401.8</v>
+        <v>394.6</v>
       </c>
       <c r="E103" t="n">
-        <v>394.8</v>
+        <v>393.6</v>
       </c>
       <c r="F103" t="n">
-        <v>25998.5831</v>
+        <v>2800.2</v>
       </c>
       <c r="G103" t="n">
-        <v>11707.01501405005</v>
+        <v>-40508.05608594996</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>394.6</v>
+      </c>
       <c r="K103" t="n">
         <v>393</v>
       </c>
@@ -4452,76 +4284,84 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>400.8</v>
+        <v>393.6</v>
       </c>
       <c r="C104" t="n">
-        <v>402.4</v>
+        <v>393.8</v>
       </c>
       <c r="D104" t="n">
-        <v>405</v>
+        <v>394.9</v>
       </c>
       <c r="E104" t="n">
-        <v>396</v>
+        <v>393.6</v>
       </c>
       <c r="F104" t="n">
-        <v>14046.5211</v>
+        <v>1071.3659</v>
       </c>
       <c r="G104" t="n">
-        <v>25753.53611405005</v>
+        <v>-41579.42198594996</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>394.6</v>
+      </c>
       <c r="K104" t="n">
         <v>393</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M104" t="n">
-        <v>1.018918575063613</v>
-      </c>
-      <c r="N104" t="n">
-        <v>1.022034332564694</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>404</v>
+        <v>393.8</v>
       </c>
       <c r="C105" t="n">
-        <v>405.8</v>
+        <v>393.2</v>
       </c>
       <c r="D105" t="n">
-        <v>409.2</v>
+        <v>393.9</v>
       </c>
       <c r="E105" t="n">
-        <v>395</v>
+        <v>393.2</v>
       </c>
       <c r="F105" t="n">
-        <v>8731.647999999999</v>
+        <v>405.0596</v>
       </c>
       <c r="G105" t="n">
-        <v>34485.18411405005</v>
+        <v>-41984.48158594996</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>393.8</v>
+      </c>
+      <c r="K105" t="n">
+        <v>393</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4532,32 +4372,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>402</v>
+        <v>393.2</v>
       </c>
       <c r="C106" t="n">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D106" t="n">
-        <v>409.6</v>
+        <v>393.2</v>
       </c>
       <c r="E106" t="n">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F106" t="n">
-        <v>21198.344</v>
+        <v>10.6338</v>
       </c>
       <c r="G106" t="n">
-        <v>13286.84011405005</v>
+        <v>-41995.11538594996</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>393.2</v>
+      </c>
+      <c r="K106" t="n">
+        <v>393</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4568,32 +4416,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>407.4</v>
+        <v>391.9</v>
       </c>
       <c r="C107" t="n">
-        <v>403.7</v>
+        <v>391.1</v>
       </c>
       <c r="D107" t="n">
-        <v>407.4</v>
+        <v>391.9</v>
       </c>
       <c r="E107" t="n">
-        <v>403.7</v>
+        <v>391.1</v>
       </c>
       <c r="F107" t="n">
-        <v>7156.2954</v>
+        <v>612.3167</v>
       </c>
       <c r="G107" t="n">
-        <v>6130.544714050046</v>
+        <v>-42607.43208594996</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>392</v>
+      </c>
+      <c r="K107" t="n">
+        <v>393</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4604,32 +4460,40 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>403.7</v>
+        <v>390.2</v>
       </c>
       <c r="C108" t="n">
-        <v>401</v>
+        <v>394.9</v>
       </c>
       <c r="D108" t="n">
-        <v>406.9</v>
+        <v>394.9</v>
       </c>
       <c r="E108" t="n">
-        <v>401</v>
+        <v>390.2</v>
       </c>
       <c r="F108" t="n">
-        <v>10438.2985</v>
+        <v>3709.8409</v>
       </c>
       <c r="G108" t="n">
-        <v>-4307.753785949954</v>
+        <v>-38897.59118594996</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>391.1</v>
+      </c>
+      <c r="K108" t="n">
+        <v>393</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4640,32 +4504,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>396.6</v>
+        <v>394.9</v>
       </c>
       <c r="C109" t="n">
-        <v>404</v>
+        <v>394.9</v>
       </c>
       <c r="D109" t="n">
-        <v>404</v>
+        <v>394.9</v>
       </c>
       <c r="E109" t="n">
-        <v>396.6</v>
+        <v>394.9</v>
       </c>
       <c r="F109" t="n">
-        <v>106.03</v>
+        <v>90.4105</v>
       </c>
       <c r="G109" t="n">
-        <v>-4201.723785949955</v>
+        <v>-38897.59118594996</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="K109" t="n">
+        <v>393</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4676,22 +4548,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>406.9</v>
+        <v>394.4</v>
       </c>
       <c r="C110" t="n">
-        <v>406.9</v>
+        <v>394.3</v>
       </c>
       <c r="D110" t="n">
-        <v>406.9</v>
+        <v>394.4</v>
       </c>
       <c r="E110" t="n">
-        <v>406.9</v>
+        <v>394.3</v>
       </c>
       <c r="F110" t="n">
-        <v>1.7889</v>
+        <v>5.0596</v>
       </c>
       <c r="G110" t="n">
-        <v>-4199.934885949955</v>
+        <v>-38902.65078594996</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4700,8 +4572,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>393</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4712,32 +4590,38 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>403</v>
+        <v>394.2</v>
       </c>
       <c r="C111" t="n">
-        <v>404.9</v>
+        <v>394.2</v>
       </c>
       <c r="D111" t="n">
-        <v>404.9</v>
+        <v>394.2</v>
       </c>
       <c r="E111" t="n">
-        <v>401</v>
+        <v>394.2</v>
       </c>
       <c r="F111" t="n">
-        <v>4730.0157</v>
+        <v>2.5298</v>
       </c>
       <c r="G111" t="n">
-        <v>-8929.950585949955</v>
+        <v>-38905.18058594996</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>393</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4748,32 +4632,38 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>401.1</v>
+        <v>394.1</v>
       </c>
       <c r="C112" t="n">
-        <v>399.1</v>
+        <v>394.1</v>
       </c>
       <c r="D112" t="n">
-        <v>401.1</v>
+        <v>394.1</v>
       </c>
       <c r="E112" t="n">
-        <v>399.1</v>
+        <v>394.1</v>
       </c>
       <c r="F112" t="n">
-        <v>3385.2863</v>
+        <v>2.5298</v>
       </c>
       <c r="G112" t="n">
-        <v>-12315.23688594995</v>
+        <v>-38907.71038594995</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>393</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4784,32 +4674,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>402.9</v>
+        <v>394.3</v>
       </c>
       <c r="C113" t="n">
-        <v>403</v>
+        <v>399.7</v>
       </c>
       <c r="D113" t="n">
-        <v>403</v>
+        <v>399.7</v>
       </c>
       <c r="E113" t="n">
-        <v>402.9</v>
+        <v>394.3</v>
       </c>
       <c r="F113" t="n">
-        <v>870</v>
+        <v>1164.7026</v>
       </c>
       <c r="G113" t="n">
-        <v>-11445.23688594995</v>
+        <v>-37743.00778594996</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>393</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4820,22 +4718,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C114" t="n">
-        <v>399.4</v>
+        <v>395</v>
       </c>
       <c r="D114" t="n">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="E114" t="n">
-        <v>399.4</v>
+        <v>395</v>
       </c>
       <c r="F114" t="n">
-        <v>2040.6622</v>
+        <v>174.74</v>
       </c>
       <c r="G114" t="n">
-        <v>-13485.89908594996</v>
+        <v>-37917.74778594996</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4844,8 +4742,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>393</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4856,32 +4760,38 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>404.7</v>
+        <v>394.1</v>
       </c>
       <c r="C115" t="n">
-        <v>404.7</v>
+        <v>394.1</v>
       </c>
       <c r="D115" t="n">
-        <v>404.7</v>
+        <v>394.1</v>
       </c>
       <c r="E115" t="n">
-        <v>404.7</v>
+        <v>394.1</v>
       </c>
       <c r="F115" t="n">
-        <v>2.0753</v>
+        <v>275</v>
       </c>
       <c r="G115" t="n">
-        <v>-13483.82378594995</v>
+        <v>-38192.74778594996</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>393</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4892,32 +4802,40 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>401</v>
+        <v>393.9</v>
       </c>
       <c r="C116" t="n">
-        <v>400</v>
+        <v>393.8</v>
       </c>
       <c r="D116" t="n">
-        <v>401</v>
+        <v>393.9</v>
       </c>
       <c r="E116" t="n">
-        <v>400</v>
+        <v>393.8</v>
       </c>
       <c r="F116" t="n">
-        <v>4050.632</v>
+        <v>1562.7062</v>
       </c>
       <c r="G116" t="n">
-        <v>-17534.45578594995</v>
+        <v>-39755.45398594996</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="K116" t="n">
+        <v>393</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4928,36 +4846,1222 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>393.1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>392.9</v>
+      </c>
+      <c r="D117" t="n">
+        <v>393.1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>392.9</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1793.8432</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-41549.29718594996</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>393.8</v>
+      </c>
+      <c r="K117" t="n">
+        <v>393</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>392.9</v>
+      </c>
+      <c r="C118" t="n">
+        <v>392.1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>392.9</v>
+      </c>
+      <c r="E118" t="n">
+        <v>392.1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>732.1371</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-42281.43428594996</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>392.9</v>
+      </c>
+      <c r="K118" t="n">
+        <v>393</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>392.1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>392.1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2388.196</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-44669.63028594996</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>392.1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>393</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5.3436</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-44664.28668594996</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="K120" t="n">
+        <v>393</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>398.2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>398.2</v>
+      </c>
+      <c r="E121" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>13941.5952</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-30722.69148594996</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>393</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="C122" t="n">
+        <v>394.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>394.7</v>
+      </c>
+      <c r="E122" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1138.8634</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-31861.55488594995</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>398.2</v>
+      </c>
+      <c r="K122" t="n">
+        <v>393</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>393.7</v>
+      </c>
+      <c r="C123" t="n">
+        <v>394.8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>394.8</v>
+      </c>
+      <c r="E123" t="n">
+        <v>393.7</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2658.2584</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-29203.29648594996</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>393</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>392</v>
+      </c>
+      <c r="C124" t="n">
+        <v>392</v>
+      </c>
+      <c r="D124" t="n">
+        <v>392</v>
+      </c>
+      <c r="E124" t="n">
+        <v>392</v>
+      </c>
+      <c r="F124" t="n">
+        <v>304.8379</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-29508.13438594995</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>393</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>392</v>
+      </c>
+      <c r="C125" t="n">
+        <v>393.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>393.9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>390.6</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2916.5453</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-26591.58908594995</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>392</v>
+      </c>
+      <c r="K125" t="n">
+        <v>393</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>392</v>
+      </c>
+      <c r="C126" t="n">
+        <v>388.6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>392</v>
+      </c>
+      <c r="E126" t="n">
+        <v>388.6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1138.8634</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-27730.45248594995</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>393</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>388.7</v>
+      </c>
+      <c r="C127" t="n">
+        <v>387.3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>388.7</v>
+      </c>
+      <c r="E127" t="n">
+        <v>387.3</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3515.5503</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-31246.00278594995</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>388.6</v>
+      </c>
+      <c r="K127" t="n">
+        <v>393</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>388.4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>388.4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>144.8056</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-31101.19718594995</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>387.3</v>
+      </c>
+      <c r="K128" t="n">
+        <v>393</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>130.325</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-30970.87218594995</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>388.4</v>
+      </c>
+      <c r="K129" t="n">
+        <v>393</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>393.7</v>
+      </c>
+      <c r="C130" t="n">
+        <v>393.7</v>
+      </c>
+      <c r="D130" t="n">
+        <v>393.7</v>
+      </c>
+      <c r="E130" t="n">
+        <v>393.7</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1270.0026</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-29700.86958594995</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K130" t="n">
+        <v>393</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>393.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>394.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>394.8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>390</v>
+      </c>
+      <c r="F131" t="n">
+        <v>15409.3015</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-14291.56808594995</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>393</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>396</v>
+      </c>
+      <c r="C132" t="n">
+        <v>400.8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>401.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>394.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>25998.5831</v>
+      </c>
+      <c r="G132" t="n">
+        <v>11707.01501405005</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>393</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>400.8</v>
+      </c>
+      <c r="C133" t="n">
+        <v>402.4</v>
+      </c>
+      <c r="D133" t="n">
+        <v>405</v>
+      </c>
+      <c r="E133" t="n">
+        <v>396</v>
+      </c>
+      <c r="F133" t="n">
+        <v>14046.5211</v>
+      </c>
+      <c r="G133" t="n">
+        <v>25753.53611405005</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>393</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>404</v>
+      </c>
+      <c r="C134" t="n">
+        <v>405.8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>409.2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>395</v>
+      </c>
+      <c r="F134" t="n">
+        <v>8731.647999999999</v>
+      </c>
+      <c r="G134" t="n">
+        <v>34485.18411405005</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>393</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>402</v>
+      </c>
+      <c r="C135" t="n">
+        <v>404</v>
+      </c>
+      <c r="D135" t="n">
+        <v>409.6</v>
+      </c>
+      <c r="E135" t="n">
         <v>401</v>
       </c>
-      <c r="C117" t="n">
+      <c r="F135" t="n">
+        <v>21198.344</v>
+      </c>
+      <c r="G135" t="n">
+        <v>13286.84011405005</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>393</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>407.4</v>
+      </c>
+      <c r="C136" t="n">
+        <v>403.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>407.4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>403.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>7156.2954</v>
+      </c>
+      <c r="G136" t="n">
+        <v>6130.544714050046</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>393</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1.022226463104326</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>403.7</v>
+      </c>
+      <c r="C137" t="n">
         <v>401</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D137" t="n">
+        <v>406.9</v>
+      </c>
+      <c r="E137" t="n">
         <v>401</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F137" t="n">
+        <v>10438.2985</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-4307.753785949954</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>404</v>
+      </c>
+      <c r="D138" t="n">
+        <v>404</v>
+      </c>
+      <c r="E138" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="F138" t="n">
+        <v>106.03</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-4201.723785949955</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>406.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>406.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>406.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>406.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.7889</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-4199.934885949955</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>403</v>
+      </c>
+      <c r="C140" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>404.9</v>
+      </c>
+      <c r="E140" t="n">
         <v>401</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F140" t="n">
+        <v>4730.0157</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-8929.950585949955</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>399.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>401.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>399.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>3385.2863</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-12315.23688594995</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>403</v>
+      </c>
+      <c r="D142" t="n">
+        <v>403</v>
+      </c>
+      <c r="E142" t="n">
+        <v>402.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>870</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-11445.23688594995</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>405</v>
+      </c>
+      <c r="C143" t="n">
+        <v>399.4</v>
+      </c>
+      <c r="D143" t="n">
+        <v>405</v>
+      </c>
+      <c r="E143" t="n">
+        <v>399.4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2040.6622</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-13485.89908594996</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>404.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>404.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>404.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>404.7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2.0753</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-13483.82378594995</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>401</v>
+      </c>
+      <c r="C145" t="n">
+        <v>400</v>
+      </c>
+      <c r="D145" t="n">
+        <v>401</v>
+      </c>
+      <c r="E145" t="n">
+        <v>400</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4050.632</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-17534.45578594995</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>401</v>
+      </c>
+      <c r="C146" t="n">
+        <v>401</v>
+      </c>
+      <c r="D146" t="n">
+        <v>401</v>
+      </c>
+      <c r="E146" t="n">
+        <v>401</v>
+      </c>
+      <c r="F146" t="n">
         <v>1245.6759</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G146" t="n">
         <v>-16288.77988594995</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-22 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-19553.77617411</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-19799.01117411</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-20946.76727411</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,21 @@
         <v>-18385.93087411</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>396.7</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +688,21 @@
         <v>-18367.85527411</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +727,21 @@
         <v>-18859.27847411</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>396.7</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +766,21 @@
         <v>-23803.37367411</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>391.1</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +805,21 @@
         <v>-23803.37367411</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>389.8</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +846,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +883,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +920,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +955,21 @@
         <v>-19689.86327411</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>389.8</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +994,19 @@
         <v>-18281.18097411</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1033,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1068,19 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1105,19 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1142,19 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1181,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1216,19 @@
         <v>-15882.36577411</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1255,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1292,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1329,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1366,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1403,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1440,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1477,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1514,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1551,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1588,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1625,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1662,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1699,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1736,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1773,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1810,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1847,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1884,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1921,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1958,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1995,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +2032,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +2067,19 @@
         <v>-33851.78937411001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2106,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +2141,19 @@
         <v>-34400.38237411001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2180,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2215,19 @@
         <v>-35694.39987411001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2252,19 @@
         <v>-35640.63157411</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2289,19 @@
         <v>-35637.67747411</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2328,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2363,19 @@
         <v>-35742.15507411</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2400,19 @@
         <v>-35740.15507411</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2439,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2476,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2513,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2550,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,22 +2585,19 @@
         <v>-36552.52077410999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="K60" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2586,22 +2624,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2628,22 +2661,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>391.2</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2670,16 +2698,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2704,18 +2733,21 @@
         <v>-36966.24763395999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>396.7</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2742,16 +2774,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2778,16 +2811,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2812,18 +2846,17 @@
         <v>-37583.64763395998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2848,18 +2881,15 @@
         <v>-37658.81153395998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2884,18 +2914,19 @@
         <v>-37658.81153395998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
+        <v>395</v>
+      </c>
+      <c r="J69" t="n">
+        <v>395</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2920,18 +2951,21 @@
         <v>-37658.81153395998</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>395</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2958,16 +2992,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>395</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2994,16 +3031,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3030,16 +3064,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3066,16 +3097,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3102,16 +3130,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3138,16 +3163,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3174,16 +3196,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3208,18 +3227,15 @@
         <v>-38636.06003395998</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3246,16 +3262,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3282,16 +3295,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3316,22 +3326,19 @@
         <v>-40682.95223395998</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="J81" t="n">
         <v>395</v>
       </c>
-      <c r="K81" t="n">
-        <v>395</v>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3356,26 +3363,21 @@
         <v>-40726.24403395998</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K82" t="n">
         <v>395</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="K82" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3400,26 +3402,23 @@
         <v>-40726.24403395998</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="J83" t="n">
-        <v>393</v>
-      </c>
-      <c r="K83" t="n">
         <v>395</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="K83" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3444,22 +3443,19 @@
         <v>-40724.94403395998</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="J84" t="n">
         <v>393</v>
       </c>
-      <c r="K84" t="n">
-        <v>393</v>
-      </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3484,26 +3480,23 @@
         <v>-40723.64403395997</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>394.9</v>
       </c>
       <c r="J85" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K85" t="n">
         <v>393</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3528,26 +3521,23 @@
         <v>-39302.28296487997</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>395.6</v>
       </c>
       <c r="J86" t="n">
-        <v>395.6</v>
-      </c>
-      <c r="K86" t="n">
         <v>393</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3572,26 +3562,15 @@
         <v>-34952.45566487998</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="K87" t="n">
-        <v>393</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3618,22 +3597,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>393</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3660,22 +3630,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>393</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3702,22 +3663,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>393</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3744,22 +3696,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>393</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3786,22 +3729,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>393</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3828,22 +3762,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>393</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3870,22 +3795,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>393</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3912,22 +3828,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>393</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3952,26 +3859,15 @@
         <v>-35713.73786487997</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>393.4</v>
-      </c>
-      <c r="K96" t="n">
-        <v>393</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3996,26 +3892,15 @@
         <v>-40053.56516487997</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="K97" t="n">
-        <v>393</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4040,26 +3925,15 @@
         <v>-40052.26516487997</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>390.1</v>
-      </c>
-      <c r="K98" t="n">
-        <v>393</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4084,26 +3958,15 @@
         <v>-41572.83956487996</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="K99" t="n">
-        <v>393</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4128,26 +3991,21 @@
         <v>-39882.78416487997</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
         <v>392</v>
       </c>
-      <c r="K100" t="n">
-        <v>393</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4172,26 +4030,21 @@
         <v>-40505.52628594996</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
         <v>396.6</v>
       </c>
-      <c r="K101" t="n">
-        <v>393</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4216,24 +4069,21 @@
         <v>-40508.05608594996</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>394.8</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>393</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4258,26 +4108,19 @@
         <v>-40508.05608594996</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="K103" t="n">
-        <v>393</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4302,26 +4145,19 @@
         <v>-41579.42198594996</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="K104" t="n">
-        <v>393</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4346,26 +4182,19 @@
         <v>-41984.48158594996</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>393.8</v>
-      </c>
-      <c r="K105" t="n">
-        <v>393</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4390,26 +4219,19 @@
         <v>-41995.11538594996</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>393.2</v>
-      </c>
-      <c r="K106" t="n">
-        <v>393</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4434,26 +4256,19 @@
         <v>-42607.43208594996</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>392</v>
-      </c>
-      <c r="K107" t="n">
-        <v>393</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4478,26 +4293,19 @@
         <v>-38897.59118594996</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>391.1</v>
-      </c>
-      <c r="K108" t="n">
-        <v>393</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4522,26 +4330,19 @@
         <v>-38897.59118594996</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="K109" t="n">
-        <v>393</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4568,22 +4369,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>393</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4610,22 +4406,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>393</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4650,24 +4441,21 @@
         <v>-38907.71038594995</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>394.2</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>393</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4692,26 +4480,19 @@
         <v>-37743.00778594996</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="K113" t="n">
-        <v>393</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4738,22 +4519,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>393</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4780,22 +4556,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>393</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4820,26 +4591,21 @@
         <v>-39755.45398594996</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
         <v>394.1</v>
       </c>
-      <c r="K116" t="n">
-        <v>393</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4864,26 +4630,21 @@
         <v>-41549.29718594996</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
         <v>393.8</v>
       </c>
-      <c r="K117" t="n">
-        <v>393</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4908,26 +4669,21 @@
         <v>-42281.43428594996</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
         <v>392.9</v>
       </c>
-      <c r="K118" t="n">
-        <v>393</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4952,26 +4708,21 @@
         <v>-44669.63028594996</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
         <v>392.1</v>
       </c>
-      <c r="K119" t="n">
-        <v>393</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4996,26 +4747,21 @@
         <v>-44664.28668594996</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
         <v>390.1</v>
       </c>
-      <c r="K120" t="n">
-        <v>393</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5040,26 +4786,21 @@
         <v>-30722.69148594996</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
         <v>394.1</v>
       </c>
-      <c r="K121" t="n">
-        <v>393</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5084,26 +4825,19 @@
         <v>-31861.55488594995</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>398.2</v>
-      </c>
-      <c r="K122" t="n">
-        <v>393</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5130,22 +4864,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>393</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5170,24 +4899,21 @@
         <v>-29508.13438594995</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>394.8</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>393</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5212,26 +4938,19 @@
         <v>-26591.58908594995</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>392</v>
-      </c>
-      <c r="K125" t="n">
-        <v>393</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5258,22 +4977,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>393</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5298,26 +5012,21 @@
         <v>-31246.00278594995</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
         <v>388.6</v>
       </c>
-      <c r="K127" t="n">
-        <v>393</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5342,26 +5051,21 @@
         <v>-31101.19718594995</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
         <v>387.3</v>
       </c>
-      <c r="K128" t="n">
-        <v>393</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5386,26 +5090,21 @@
         <v>-30970.87218594995</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
         <v>388.4</v>
       </c>
-      <c r="K129" t="n">
-        <v>393</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5432,24 +5131,17 @@
       <c r="H130" t="n">
         <v>1</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>388.5</v>
-      </c>
-      <c r="K130" t="n">
-        <v>393</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5474,24 +5166,19 @@
         <v>-14291.56808594995</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>393</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5518,22 +5205,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>393</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5560,22 +5242,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>393</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5600,24 +5277,19 @@
         <v>34485.18411405005</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>393</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5642,24 +5314,19 @@
         <v>13286.84011405005</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>393</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5684,24 +5351,17 @@
         <v>6130.544714050046</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>393</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1.022226463104326</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5726,18 +5386,15 @@
         <v>-4307.753785949954</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5762,18 +5419,15 @@
         <v>-4201.723785949955</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5800,16 +5454,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5834,18 +5485,15 @@
         <v>-8929.950585949955</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5870,18 +5518,15 @@
         <v>-12315.23688594995</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5908,16 +5553,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5944,16 +5586,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5980,16 +5619,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6016,16 +5652,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6052,18 +5685,15 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-22 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-19553.77617411</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-19799.01117411</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-20946.76727411</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,17 +649,11 @@
         <v>-18385.93087411</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>396.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -688,17 +682,11 @@
         <v>-18367.85527411</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>391</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -727,17 +715,11 @@
         <v>-18859.27847411</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>396.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -766,17 +748,11 @@
         <v>-23803.37367411</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>391.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -805,17 +781,11 @@
         <v>-23803.37367411</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>389.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -848,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -885,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -922,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -955,17 +913,11 @@
         <v>-19689.86327411</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>389.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -994,15 +946,11 @@
         <v>-18281.18097411</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1035,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1068,15 +1012,11 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1105,15 +1045,11 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1142,15 +1078,11 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1179,15 +1111,11 @@
         <v>-14499.99077411</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1216,15 +1144,11 @@
         <v>-15882.36577411</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1253,15 +1177,11 @@
         <v>-30325.06197410999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1290,15 +1210,11 @@
         <v>-29642.96347410999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1327,15 +1243,11 @@
         <v>-29642.96347410999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1364,15 +1276,11 @@
         <v>-33249.58547411</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1401,15 +1309,11 @@
         <v>-32533.37517411</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1438,15 +1342,11 @@
         <v>-32590.03497411</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1479,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1516,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1553,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1590,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1627,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1664,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1701,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1775,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1812,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1849,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1886,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1923,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1960,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1997,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2034,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2067,15 +1903,11 @@
         <v>-33851.78937411001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2108,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2141,15 +1969,11 @@
         <v>-34400.38237411001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2182,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2215,15 +2035,11 @@
         <v>-35694.39987411001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2252,15 +2068,11 @@
         <v>-35640.63157411</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2289,15 +2101,11 @@
         <v>-35637.67747411</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2330,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2363,15 +2167,11 @@
         <v>-35742.15507411</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2400,15 +2200,11 @@
         <v>-35740.15507411</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2441,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2478,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2515,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2552,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2589,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2626,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2663,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2700,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2733,17 +2497,11 @@
         <v>-36966.24763395999</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>396.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2776,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2813,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2846,16 +2596,14 @@
         <v>-37583.64763395998</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
       <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2881,7 +2629,7 @@
         <v>-37658.81153395998</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2914,14 +2662,10 @@
         <v>-37658.81153395998</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>395</v>
-      </c>
-      <c r="J69" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2951,17 +2695,11 @@
         <v>-37658.81153395998</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>395</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2993,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>395</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +2959,7 @@
         <v>-38636.06003395998</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3293,10 +3025,14 @@
         <v>-40626.06003395998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>395</v>
+      </c>
+      <c r="J80" t="n">
+        <v>395</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
@@ -3326,7 +3062,7 @@
         <v>-40682.95223395998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>395</v>
@@ -3334,7 +3070,11 @@
       <c r="J81" t="n">
         <v>395</v>
       </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3363,9 +3103,11 @@
         <v>-40726.24403395998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>394.1</v>
+      </c>
       <c r="J82" t="n">
         <v>395</v>
       </c>
@@ -3402,19 +3144,15 @@
         <v>-40726.24403395998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>393</v>
       </c>
       <c r="J83" t="n">
-        <v>395</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3443,7 +3181,7 @@
         <v>-40724.94403395998</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>393</v>
@@ -3451,7 +3189,11 @@
       <c r="J84" t="n">
         <v>393</v>
       </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3480,7 +3222,7 @@
         <v>-40723.64403395997</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>394.9</v>
@@ -3521,7 +3263,7 @@
         <v>-39302.28296487997</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>395.6</v>
@@ -3531,7 +3273,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3562,11 +3304,19 @@
         <v>-34952.45566487998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="J87" t="n">
+        <v>393</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3595,11 +3345,19 @@
         <v>-35504.45566487998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>397.7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>393</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3628,11 +3386,19 @@
         <v>-35514.44566487998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="J89" t="n">
+        <v>393</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3661,11 +3427,19 @@
         <v>-35512.68276487997</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="J90" t="n">
+        <v>393</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3694,11 +3468,19 @@
         <v>-35512.68276487997</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="J91" t="n">
+        <v>393</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3727,11 +3509,19 @@
         <v>-35519.18276487997</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>393</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3760,11 +3550,19 @@
         <v>-34449.10786487997</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>396.9</v>
+      </c>
+      <c r="J93" t="n">
+        <v>393</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3793,11 +3591,19 @@
         <v>-34449.10786487997</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="J94" t="n">
+        <v>393</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3826,11 +3632,19 @@
         <v>-35743.73786487997</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="J95" t="n">
+        <v>393</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3859,11 +3673,19 @@
         <v>-35713.73786487997</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>393.4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>393</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3892,11 +3714,19 @@
         <v>-40053.56516487997</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="J97" t="n">
+        <v>393</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3925,11 +3755,19 @@
         <v>-40052.26516487997</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>393</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3958,11 +3796,19 @@
         <v>-41572.83956487996</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="J99" t="n">
+        <v>393</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3991,15 +3837,17 @@
         <v>-39882.78416487997</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>392</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>393</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -4030,12 +3878,14 @@
         <v>-40505.52628594996</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>396.6</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>393</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4069,12 +3919,14 @@
         <v>-40508.05608594996</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>394.8</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>393</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4108,10 +3960,14 @@
         <v>-40508.05608594996</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="J103" t="n">
+        <v>393</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4145,10 +4001,14 @@
         <v>-41579.42198594996</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="J104" t="n">
+        <v>393</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4182,10 +4042,14 @@
         <v>-41984.48158594996</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>393.8</v>
+      </c>
+      <c r="J105" t="n">
+        <v>393</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4219,10 +4083,14 @@
         <v>-41995.11538594996</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>393.2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>393</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4256,10 +4124,14 @@
         <v>-42607.43208594996</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>392</v>
+      </c>
+      <c r="J107" t="n">
+        <v>393</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4293,10 +4165,14 @@
         <v>-38897.59118594996</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>391.1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>393</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4330,10 +4206,14 @@
         <v>-38897.59118594996</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="J109" t="n">
+        <v>393</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4367,10 +4247,14 @@
         <v>-38902.65078594996</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="J110" t="n">
+        <v>393</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4404,10 +4288,14 @@
         <v>-38905.18058594996</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>394.3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>393</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4441,12 +4329,14 @@
         <v>-38907.71038594995</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>394.2</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>393</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4480,10 +4370,14 @@
         <v>-37743.00778594996</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>393</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4517,10 +4411,14 @@
         <v>-37917.74778594996</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>399.7</v>
+      </c>
+      <c r="J114" t="n">
+        <v>393</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4554,10 +4452,14 @@
         <v>-38192.74778594996</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>395</v>
+      </c>
+      <c r="J115" t="n">
+        <v>393</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4591,12 +4493,14 @@
         <v>-39755.45398594996</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>394.1</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>393</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4630,12 +4534,14 @@
         <v>-41549.29718594996</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>393.8</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>393</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4669,12 +4575,14 @@
         <v>-42281.43428594996</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>392.9</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>393</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4708,12 +4616,14 @@
         <v>-44669.63028594996</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>392.1</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>393</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4747,12 +4657,14 @@
         <v>-44664.28668594996</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>390.1</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>393</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4786,12 +4698,14 @@
         <v>-30722.69148594996</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>394.1</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>393</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4825,10 +4739,14 @@
         <v>-31861.55488594995</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>398.2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>393</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4862,10 +4780,14 @@
         <v>-29203.29648594996</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>394.7</v>
+      </c>
+      <c r="J123" t="n">
+        <v>393</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4899,12 +4821,14 @@
         <v>-29508.13438594995</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>394.8</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>393</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4938,10 +4862,14 @@
         <v>-26591.58908594995</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>392</v>
+      </c>
+      <c r="J125" t="n">
+        <v>393</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4975,10 +4903,14 @@
         <v>-27730.45248594995</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>393.9</v>
+      </c>
+      <c r="J126" t="n">
+        <v>393</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5012,12 +4944,14 @@
         <v>-31246.00278594995</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>388.6</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>393</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5051,12 +4985,14 @@
         <v>-31101.19718594995</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>387.3</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>393</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5090,12 +5026,14 @@
         <v>-30970.87218594995</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>388.4</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>393</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5131,8 +5069,12 @@
       <c r="H130" t="n">
         <v>1</v>
       </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="J130" t="n">
+        <v>393</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5168,8 +5110,12 @@
       <c r="H131" t="n">
         <v>1</v>
       </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>393.7</v>
+      </c>
+      <c r="J131" t="n">
+        <v>393</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5206,7 +5152,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>393</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5243,7 +5191,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>393</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5277,10 +5227,12 @@
         <v>34485.18411405005</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>393</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5314,10 +5266,12 @@
         <v>13286.84011405005</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>393</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5351,16 +5305,20 @@
         <v>6130.544714050046</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>393</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L136" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
       <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
@@ -5386,11 +5344,17 @@
         <v>-4307.753785949954</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>393</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5419,11 +5383,17 @@
         <v>-4201.723785949955</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>393</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5455,8 +5425,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>393</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5485,13 +5461,19 @@
         <v>-8929.950585949955</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>393</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L140" t="n">
-        <v>1</v>
+        <v>1.02527989821883</v>
       </c>
       <c r="M140" t="inlineStr"/>
     </row>
@@ -5518,7 +5500,7 @@
         <v>-12315.23688594995</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5551,7 +5533,7 @@
         <v>-11445.23688594995</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5617,7 +5599,7 @@
         <v>-13483.82378594995</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5650,7 +5632,7 @@
         <v>-17534.45578594995</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5694,6 +5676,6 @@
       <c r="M146" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-22 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-20946.76727411</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-15944.85097411</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-18385.93087411</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-18367.85527411</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-18859.27847411</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-23803.37367411</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-23803.37367411</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-19689.86327411</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-18281.18097411</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-17029.99077411</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-14499.99077411</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-15882.36577411</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-30325.06197410999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-29642.96347410999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-32787.03497411</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -3025,14 +3025,10 @@
         <v>-40626.06003395998</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>395</v>
-      </c>
-      <c r="J80" t="n">
-        <v>395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
@@ -3062,19 +3058,11 @@
         <v>-40682.95223395998</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>395</v>
-      </c>
-      <c r="J81" t="n">
-        <v>395</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3103,19 +3091,11 @@
         <v>-40726.24403395998</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>395</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3144,14 +3124,10 @@
         <v>-40726.24403395998</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>393</v>
-      </c>
-      <c r="J83" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
@@ -3181,19 +3157,11 @@
         <v>-40724.94403395998</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>393</v>
-      </c>
-      <c r="J84" t="n">
-        <v>393</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3222,19 +3190,11 @@
         <v>-40723.64403395997</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="J85" t="n">
-        <v>393</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3263,1249 +3223,1007 @@
         <v>-39302.28296487997</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>395.6</v>
-      </c>
-      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="C87" t="n">
+        <v>397.7</v>
+      </c>
+      <c r="D87" t="n">
+        <v>397.7</v>
+      </c>
+      <c r="E87" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4349.8273</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-34952.45566487998</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>397.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="D88" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="E88" t="n">
+        <v>397.5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>552</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-35504.45566487998</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="C89" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="D89" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="E89" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="F89" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-35514.44566487998</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="C90" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="D90" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="E90" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.7629</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-35512.68276487997</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="C91" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="D91" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="E91" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="F91" t="n">
+        <v>99.407</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-35512.68276487997</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>395.4</v>
+      </c>
+      <c r="C92" t="n">
+        <v>396.9</v>
+      </c>
+      <c r="D92" t="n">
+        <v>396.9</v>
+      </c>
+      <c r="E92" t="n">
+        <v>395.4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-35519.18276487997</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>396.8</v>
+      </c>
+      <c r="C93" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="E93" t="n">
+        <v>396.8</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1070.0749</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-34449.10786487997</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="C94" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="E94" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="F94" t="n">
+        <v>26.8749</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-34449.10786487997</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="C95" t="n">
+        <v>393.4</v>
+      </c>
+      <c r="D95" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="E95" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1294.63</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-35743.73786487997</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="C96" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="E96" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="F96" t="n">
+        <v>30</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-35713.73786487997</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>393.4</v>
+      </c>
+      <c r="C97" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="D97" t="n">
+        <v>393.4</v>
+      </c>
+      <c r="E97" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4339.8273</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-40053.56516487997</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="C98" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="D98" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="E98" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-40052.26516487997</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
         <v>393</v>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="C99" t="n">
+        <v>392</v>
+      </c>
+      <c r="D99" t="n">
+        <v>393</v>
+      </c>
+      <c r="E99" t="n">
+        <v>392</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1520.5744</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-41572.83956487996</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>392</v>
+      </c>
+      <c r="C100" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="D100" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="E100" t="n">
+        <v>392</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1690.0554</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-39882.78416487997</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>393.5</v>
+      </c>
+      <c r="C101" t="n">
+        <v>394.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>394.8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>393.5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>622.7421210700001</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-40505.52628594996</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="C102" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="D102" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="E102" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2.5298</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-40508.05608594996</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>393.6</v>
+      </c>
+      <c r="C103" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>393.6</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2800.2</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-40508.05608594996</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>393.6</v>
+      </c>
+      <c r="C104" t="n">
+        <v>393.8</v>
+      </c>
+      <c r="D104" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>393.6</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1071.3659</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-41579.42198594996</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>393.8</v>
+      </c>
+      <c r="C105" t="n">
+        <v>393.2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>393.9</v>
+      </c>
+      <c r="E105" t="n">
+        <v>393.2</v>
+      </c>
+      <c r="F105" t="n">
+        <v>405.0596</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-41984.48158594996</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>393.2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>392</v>
+      </c>
+      <c r="D106" t="n">
+        <v>393.2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>392</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10.6338</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-41995.11538594996</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>391.9</v>
+      </c>
+      <c r="C107" t="n">
+        <v>391.1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>391.9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>391.1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>612.3167</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-42607.43208594996</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>390.2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="D108" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="E108" t="n">
+        <v>390.2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3709.8409</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-38897.59118594996</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="C109" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="D109" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="E109" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="F109" t="n">
+        <v>90.4105</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-38897.59118594996</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>394.4</v>
+      </c>
+      <c r="C110" t="n">
+        <v>394.3</v>
+      </c>
+      <c r="D110" t="n">
+        <v>394.4</v>
+      </c>
+      <c r="E110" t="n">
+        <v>394.3</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5.0596</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-38902.65078594996</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>394.2</v>
+      </c>
+      <c r="C111" t="n">
+        <v>394.2</v>
+      </c>
+      <c r="D111" t="n">
+        <v>394.2</v>
+      </c>
+      <c r="E111" t="n">
+        <v>394.2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.5298</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-38905.18058594996</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.5298</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-38907.71038594995</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>394.3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>399.7</v>
+      </c>
+      <c r="D113" t="n">
+        <v>399.7</v>
+      </c>
+      <c r="E113" t="n">
+        <v>394.3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1164.7026</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-37743.00778594996</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>395</v>
+      </c>
+      <c r="C114" t="n">
+        <v>395</v>
+      </c>
+      <c r="D114" t="n">
+        <v>395</v>
+      </c>
+      <c r="E114" t="n">
+        <v>395</v>
+      </c>
+      <c r="F114" t="n">
+        <v>174.74</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-37917.74778594996</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>275</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-38192.74778594996</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>393.9</v>
+      </c>
+      <c r="C116" t="n">
+        <v>393.8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>393.9</v>
+      </c>
+      <c r="E116" t="n">
+        <v>393.8</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1562.7062</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-39755.45398594996</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="C87" t="n">
-        <v>397.7</v>
-      </c>
-      <c r="D87" t="n">
-        <v>397.7</v>
-      </c>
-      <c r="E87" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="F87" t="n">
-        <v>4349.8273</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-34952.45566487998</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>393</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>397.5</v>
-      </c>
-      <c r="C88" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="D88" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="E88" t="n">
-        <v>397.5</v>
-      </c>
-      <c r="F88" t="n">
-        <v>552</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-35504.45566487998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>397.7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>393</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="C89" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="D89" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="E89" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="F89" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-35514.44566487998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>393</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="C90" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="D90" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="E90" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1.7629</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-35512.68276487997</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>393</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="C91" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="D91" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="E91" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="F91" t="n">
-        <v>99.407</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-35512.68276487997</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="J91" t="n">
-        <v>393</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>395.4</v>
-      </c>
-      <c r="C92" t="n">
-        <v>396.9</v>
-      </c>
-      <c r="D92" t="n">
-        <v>396.9</v>
-      </c>
-      <c r="E92" t="n">
-        <v>395.4</v>
-      </c>
-      <c r="F92" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-35519.18276487997</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="J92" t="n">
-        <v>393</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>396.8</v>
-      </c>
-      <c r="C93" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="D93" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="E93" t="n">
-        <v>396.8</v>
-      </c>
-      <c r="F93" t="n">
-        <v>1070.0749</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-34449.10786487997</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>396.9</v>
-      </c>
-      <c r="J93" t="n">
-        <v>393</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="C94" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="D94" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="E94" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="F94" t="n">
-        <v>26.8749</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-34449.10786487997</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>393</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="C95" t="n">
-        <v>393.4</v>
-      </c>
-      <c r="D95" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="E95" t="n">
-        <v>390.1</v>
-      </c>
-      <c r="F95" t="n">
-        <v>1294.63</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-35743.73786487997</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="J95" t="n">
-        <v>393</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="C96" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="D96" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="E96" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="F96" t="n">
-        <v>30</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-35713.73786487997</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>393.4</v>
-      </c>
-      <c r="J96" t="n">
-        <v>393</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>393.4</v>
-      </c>
-      <c r="C97" t="n">
-        <v>390.1</v>
-      </c>
-      <c r="D97" t="n">
-        <v>393.4</v>
-      </c>
-      <c r="E97" t="n">
-        <v>390.1</v>
-      </c>
-      <c r="F97" t="n">
-        <v>4339.8273</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-40053.56516487997</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="J97" t="n">
-        <v>393</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="C98" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="D98" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="E98" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-40052.26516487997</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>390.1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>393</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>393</v>
-      </c>
-      <c r="C99" t="n">
-        <v>392</v>
-      </c>
-      <c r="D99" t="n">
-        <v>393</v>
-      </c>
-      <c r="E99" t="n">
-        <v>392</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1520.5744</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-41572.83956487996</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>393</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>392</v>
-      </c>
-      <c r="C100" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="D100" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="E100" t="n">
-        <v>392</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1690.0554</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-39882.78416487997</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>392</v>
-      </c>
-      <c r="J100" t="n">
-        <v>393</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>393.5</v>
-      </c>
-      <c r="C101" t="n">
-        <v>394.8</v>
-      </c>
-      <c r="D101" t="n">
-        <v>394.8</v>
-      </c>
-      <c r="E101" t="n">
-        <v>393.5</v>
-      </c>
-      <c r="F101" t="n">
-        <v>622.7421210700001</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-40505.52628594996</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="J101" t="n">
-        <v>393</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="C102" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="D102" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="E102" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="F102" t="n">
-        <v>2.5298</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-40508.05608594996</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>394.8</v>
-      </c>
-      <c r="J102" t="n">
-        <v>393</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>393.6</v>
-      </c>
-      <c r="C103" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="D103" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="E103" t="n">
-        <v>393.6</v>
-      </c>
-      <c r="F103" t="n">
-        <v>2800.2</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-40508.05608594996</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="J103" t="n">
-        <v>393</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>393.6</v>
-      </c>
-      <c r="C104" t="n">
-        <v>393.8</v>
-      </c>
-      <c r="D104" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="E104" t="n">
-        <v>393.6</v>
-      </c>
-      <c r="F104" t="n">
-        <v>1071.3659</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-41579.42198594996</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="J104" t="n">
-        <v>393</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>393.8</v>
-      </c>
-      <c r="C105" t="n">
-        <v>393.2</v>
-      </c>
-      <c r="D105" t="n">
-        <v>393.9</v>
-      </c>
-      <c r="E105" t="n">
-        <v>393.2</v>
-      </c>
-      <c r="F105" t="n">
-        <v>405.0596</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-41984.48158594996</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>393.8</v>
-      </c>
-      <c r="J105" t="n">
-        <v>393</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>393.2</v>
-      </c>
-      <c r="C106" t="n">
-        <v>392</v>
-      </c>
-      <c r="D106" t="n">
-        <v>393.2</v>
-      </c>
-      <c r="E106" t="n">
-        <v>392</v>
-      </c>
-      <c r="F106" t="n">
-        <v>10.6338</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-41995.11538594996</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>393.2</v>
-      </c>
-      <c r="J106" t="n">
-        <v>393</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>391.9</v>
-      </c>
-      <c r="C107" t="n">
-        <v>391.1</v>
-      </c>
-      <c r="D107" t="n">
-        <v>391.9</v>
-      </c>
-      <c r="E107" t="n">
-        <v>391.1</v>
-      </c>
-      <c r="F107" t="n">
-        <v>612.3167</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-42607.43208594996</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>392</v>
-      </c>
-      <c r="J107" t="n">
-        <v>393</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>390.2</v>
-      </c>
-      <c r="C108" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="D108" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="E108" t="n">
-        <v>390.2</v>
-      </c>
-      <c r="F108" t="n">
-        <v>3709.8409</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-38897.59118594996</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>391.1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>393</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="C109" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="D109" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="E109" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="F109" t="n">
-        <v>90.4105</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-38897.59118594996</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="J109" t="n">
-        <v>393</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>394.4</v>
-      </c>
-      <c r="C110" t="n">
-        <v>394.3</v>
-      </c>
-      <c r="D110" t="n">
-        <v>394.4</v>
-      </c>
-      <c r="E110" t="n">
-        <v>394.3</v>
-      </c>
-      <c r="F110" t="n">
-        <v>5.0596</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-38902.65078594996</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="J110" t="n">
-        <v>393</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>394.2</v>
-      </c>
-      <c r="C111" t="n">
-        <v>394.2</v>
-      </c>
-      <c r="D111" t="n">
-        <v>394.2</v>
-      </c>
-      <c r="E111" t="n">
-        <v>394.2</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2.5298</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-38905.18058594996</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>394.3</v>
-      </c>
-      <c r="J111" t="n">
-        <v>393</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="C112" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="E112" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="F112" t="n">
-        <v>2.5298</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-38907.71038594995</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>394.2</v>
-      </c>
-      <c r="J112" t="n">
-        <v>393</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>394.3</v>
-      </c>
-      <c r="C113" t="n">
-        <v>399.7</v>
-      </c>
-      <c r="D113" t="n">
-        <v>399.7</v>
-      </c>
-      <c r="E113" t="n">
-        <v>394.3</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1164.7026</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-37743.00778594996</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>393</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>395</v>
-      </c>
-      <c r="C114" t="n">
-        <v>395</v>
-      </c>
-      <c r="D114" t="n">
-        <v>395</v>
-      </c>
-      <c r="E114" t="n">
-        <v>395</v>
-      </c>
-      <c r="F114" t="n">
-        <v>174.74</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-37917.74778594996</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>399.7</v>
-      </c>
-      <c r="J114" t="n">
-        <v>393</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="C115" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="D115" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="E115" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="F115" t="n">
-        <v>275</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-38192.74778594996</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>395</v>
-      </c>
-      <c r="J115" t="n">
-        <v>393</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>393.9</v>
-      </c>
-      <c r="C116" t="n">
-        <v>393.8</v>
-      </c>
-      <c r="D116" t="n">
-        <v>393.9</v>
-      </c>
-      <c r="E116" t="n">
-        <v>393.8</v>
-      </c>
-      <c r="F116" t="n">
-        <v>1562.7062</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-39755.45398594996</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>393</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4534,14 +4252,10 @@
         <v>-41549.29718594996</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>393.8</v>
-      </c>
-      <c r="J117" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4575,14 +4289,10 @@
         <v>-42281.43428594996</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>392.9</v>
-      </c>
-      <c r="J118" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4616,14 +4326,10 @@
         <v>-44669.63028594996</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>392.1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4657,14 +4363,10 @@
         <v>-44664.28668594996</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>390.1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4698,14 +4400,10 @@
         <v>-30722.69148594996</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="J121" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4739,14 +4437,10 @@
         <v>-31861.55488594995</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>398.2</v>
-      </c>
-      <c r="J122" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4780,14 +4474,10 @@
         <v>-29203.29648594996</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>394.7</v>
-      </c>
-      <c r="J123" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4821,14 +4511,10 @@
         <v>-29508.13438594995</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>394.8</v>
-      </c>
-      <c r="J124" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4862,14 +4548,10 @@
         <v>-26591.58908594995</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>392</v>
-      </c>
-      <c r="J125" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4903,14 +4585,10 @@
         <v>-27730.45248594995</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>393.9</v>
-      </c>
-      <c r="J126" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4944,14 +4622,10 @@
         <v>-31246.00278594995</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>388.6</v>
-      </c>
-      <c r="J127" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4985,14 +4659,10 @@
         <v>-31101.19718594995</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>387.3</v>
-      </c>
-      <c r="J128" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5026,14 +4696,10 @@
         <v>-30970.87218594995</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>388.4</v>
-      </c>
-      <c r="J129" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5067,14 +4733,10 @@
         <v>-29700.86958594995</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>388.5</v>
-      </c>
-      <c r="J130" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5108,14 +4770,10 @@
         <v>-14291.56808594995</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>393.7</v>
-      </c>
-      <c r="J131" t="n">
-        <v>393</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5152,9 +4810,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>393</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,9 +4847,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>393</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5230,9 +4884,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>393</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5269,9 +4921,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>393</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5308,9 +4958,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>393</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5347,9 +4995,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>393</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5386,9 +5032,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>393</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5425,9 +5069,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>393</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5461,19 +5103,17 @@
         <v>-8929.950585949955</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>393</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.02527989821883</v>
+        <v>1</v>
       </c>
       <c r="M140" t="inlineStr"/>
     </row>
@@ -5500,11 +5140,15 @@
         <v>-12315.23688594995</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5533,11 +5177,15 @@
         <v>-11445.23688594995</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5570,7 +5218,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5251,15 @@
         <v>-13483.82378594995</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5288,15 @@
         <v>-17534.45578594995</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5669,13 +5329,17 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
       <c r="M146" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-22 BackTest STRAT.xlsx
@@ -583,7 +583,7 @@
         <v>-20946.76727411</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-15944.85097411</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-18385.93087411</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-18367.85527411</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-18859.27847411</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-23803.37367411</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-23803.37367411</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-19689.86327411</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-18281.18097411</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-17029.99077411</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-14549.99077411</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-29642.96347410999</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-33249.58547411</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-32533.37517411</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-32590.03497411</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-32787.03497411</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2497,10 +2497,14 @@
         <v>-36966.24763395999</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>396.7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>396.7</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
@@ -2533,8 +2537,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>396.7</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2576,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>396.7</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,10 +2612,14 @@
         <v>-37583.64763395998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>396.8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>396.8</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
@@ -2629,11 +2649,19 @@
         <v>-37658.81153395998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>396.9</v>
+      </c>
+      <c r="J68" t="n">
+        <v>396.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2690,19 @@
         <v>-37658.81153395998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>395</v>
+      </c>
+      <c r="J69" t="n">
+        <v>396.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,10 +2731,14 @@
         <v>-37658.81153395998</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>395</v>
+      </c>
+      <c r="J70" t="n">
+        <v>395</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
@@ -2728,11 +2768,19 @@
         <v>-37658.81153395998</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>395</v>
+      </c>
+      <c r="J71" t="n">
+        <v>395</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2809,19 @@
         <v>-37104.46803395998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>395</v>
+      </c>
+      <c r="J72" t="n">
+        <v>395</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2850,19 @@
         <v>-38714.46803395998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>398.8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>395</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2891,19 @@
         <v>-38636.06003395998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>395</v>
+      </c>
+      <c r="J74" t="n">
+        <v>395</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2932,19 @@
         <v>-38636.06003395998</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="J75" t="n">
+        <v>395</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +2976,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>395</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3012,19 @@
         <v>-38636.06003395998</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="J77" t="n">
+        <v>395</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3053,19 @@
         <v>-38636.06003395998</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>395</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3094,19 @@
         <v>-40626.06003395998</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="J79" t="n">
+        <v>395</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3135,19 @@
         <v>-40626.06003395998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>395</v>
+      </c>
+      <c r="J80" t="n">
+        <v>395</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3176,19 @@
         <v>-40682.95223395998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>395</v>
+      </c>
+      <c r="J81" t="n">
+        <v>395</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3217,19 @@
         <v>-40726.24403395998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>395</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3258,19 @@
         <v>-40726.24403395998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>393</v>
+      </c>
+      <c r="J83" t="n">
+        <v>395</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3299,19 @@
         <v>-40724.94403395998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>393</v>
+      </c>
+      <c r="J84" t="n">
+        <v>395</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3340,19 @@
         <v>-40723.64403395997</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>395</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3381,19 @@
         <v>-39302.28296487997</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>395.6</v>
+      </c>
+      <c r="J86" t="n">
+        <v>395</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3422,19 @@
         <v>-34952.45566487998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="J87" t="n">
+        <v>395</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3463,19 @@
         <v>-35504.45566487998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>397.7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>395</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3504,19 @@
         <v>-35514.44566487998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="J89" t="n">
+        <v>395</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3545,19 @@
         <v>-35512.68276487997</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="J90" t="n">
+        <v>395</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3586,19 @@
         <v>-35512.68276487997</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="J91" t="n">
+        <v>395</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3627,19 @@
         <v>-35519.18276487997</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>395</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3668,19 @@
         <v>-34449.10786487997</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>396.9</v>
+      </c>
+      <c r="J93" t="n">
+        <v>395</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3709,19 @@
         <v>-34449.10786487997</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="J94" t="n">
+        <v>395</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3750,19 @@
         <v>-35743.73786487997</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>397.6</v>
+      </c>
+      <c r="J95" t="n">
+        <v>395</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3791,19 @@
         <v>-35713.73786487997</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>393.4</v>
+      </c>
+      <c r="J96" t="n">
+        <v>395</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3832,19 @@
         <v>-40053.56516487997</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="J97" t="n">
+        <v>395</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3873,19 @@
         <v>-40052.26516487997</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>395</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3914,19 @@
         <v>-41572.83956487996</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="J99" t="n">
+        <v>395</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3955,19 @@
         <v>-39882.78416487997</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>392</v>
+      </c>
+      <c r="J100" t="n">
+        <v>395</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3996,19 @@
         <v>-40505.52628594996</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>396.6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>395</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +4037,19 @@
         <v>-40508.05608594996</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>394.8</v>
+      </c>
+      <c r="J102" t="n">
+        <v>395</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4078,19 @@
         <v>-40508.05608594996</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="J103" t="n">
+        <v>395</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4119,19 @@
         <v>-41579.42198594996</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>394.6</v>
+      </c>
+      <c r="J104" t="n">
+        <v>395</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4160,19 @@
         <v>-41984.48158594996</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>393.8</v>
+      </c>
+      <c r="J105" t="n">
+        <v>395</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4201,19 @@
         <v>-41995.11538594996</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>393.2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>395</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4242,19 @@
         <v>-42607.43208594996</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>392</v>
+      </c>
+      <c r="J107" t="n">
+        <v>395</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4283,19 @@
         <v>-38897.59118594996</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>391.1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>395</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4324,19 @@
         <v>-38897.59118594996</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="J109" t="n">
+        <v>395</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4365,19 @@
         <v>-38902.65078594996</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>394.9</v>
+      </c>
+      <c r="J110" t="n">
+        <v>395</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4406,19 @@
         <v>-38905.18058594996</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>394.3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>395</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4447,19 @@
         <v>-38907.71038594995</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>394.2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>395</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4488,19 @@
         <v>-37743.00778594996</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>395</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4529,19 @@
         <v>-37917.74778594996</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>399.7</v>
+      </c>
+      <c r="J114" t="n">
+        <v>395</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4570,19 @@
         <v>-38192.74778594996</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>395</v>
+      </c>
+      <c r="J115" t="n">
+        <v>395</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4218,10 +4616,12 @@
       <c r="I116" t="n">
         <v>394.1</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>395</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -4252,10 +4652,14 @@
         <v>-41549.29718594996</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>393.8</v>
+      </c>
+      <c r="J117" t="n">
+        <v>395</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4289,10 +4693,14 @@
         <v>-42281.43428594996</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>392.9</v>
+      </c>
+      <c r="J118" t="n">
+        <v>395</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4326,10 +4734,14 @@
         <v>-44669.63028594996</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>392.1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>395</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4363,10 +4775,14 @@
         <v>-44664.28668594996</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>390.1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>395</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4400,10 +4816,14 @@
         <v>-30722.69148594996</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>395</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4437,10 +4857,14 @@
         <v>-31861.55488594995</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>398.2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>395</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4474,10 +4898,14 @@
         <v>-29203.29648594996</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>394.7</v>
+      </c>
+      <c r="J123" t="n">
+        <v>395</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4511,10 +4939,14 @@
         <v>-29508.13438594995</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>394.8</v>
+      </c>
+      <c r="J124" t="n">
+        <v>395</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4548,10 +4980,14 @@
         <v>-26591.58908594995</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>392</v>
+      </c>
+      <c r="J125" t="n">
+        <v>395</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4585,10 +5021,14 @@
         <v>-27730.45248594995</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>393.9</v>
+      </c>
+      <c r="J126" t="n">
+        <v>395</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4622,10 +5062,14 @@
         <v>-31246.00278594995</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>388.6</v>
+      </c>
+      <c r="J127" t="n">
+        <v>395</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4659,10 +5103,14 @@
         <v>-31101.19718594995</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>387.3</v>
+      </c>
+      <c r="J128" t="n">
+        <v>395</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4696,10 +5144,14 @@
         <v>-30970.87218594995</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>388.4</v>
+      </c>
+      <c r="J129" t="n">
+        <v>395</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4733,10 +5185,14 @@
         <v>-29700.86958594995</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="J130" t="n">
+        <v>395</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4773,7 +5229,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>395</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4810,7 +5268,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>395</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4847,7 +5307,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>395</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4881,17 +5343,19 @@
         <v>34485.18411405005</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>395</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1</v>
+        <v>1.022341772151899</v>
       </c>
       <c r="M134" t="inlineStr"/>
     </row>
@@ -4918,15 +5382,11 @@
         <v>13286.84011405005</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4955,15 +5415,11 @@
         <v>6130.544714050046</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4992,15 +5448,11 @@
         <v>-4307.753785949954</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5029,15 +5481,11 @@
         <v>-4201.723785949955</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5070,11 +5518,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5103,15 +5547,11 @@
         <v>-8929.950585949955</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5144,11 +5584,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5177,15 +5613,11 @@
         <v>-11445.23688594995</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5218,11 +5650,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5251,15 +5679,11 @@
         <v>-13483.82378594995</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5288,15 +5712,11 @@
         <v>-17534.45578594995</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5325,15 +5745,11 @@
         <v>-16288.77988594995</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-22 BackTest STRAT.xlsx
+++ b/BackTest/2020-01-22 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3637.1625</v>
       </c>
       <c r="G2" t="n">
-        <v>-19425.99257411</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>127.7836</v>
       </c>
       <c r="G3" t="n">
-        <v>-19553.77617411</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>245.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-19799.01117411</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1654.3235</v>
       </c>
       <c r="G5" t="n">
-        <v>-19799.01117411</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1147.7561</v>
       </c>
       <c r="G6" t="n">
-        <v>-20946.76727411</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>5001.9163</v>
       </c>
       <c r="G7" t="n">
-        <v>-15944.85097411</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2441.0799</v>
       </c>
       <c r="G8" t="n">
-        <v>-18385.93087411</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>18.0756</v>
       </c>
       <c r="G9" t="n">
-        <v>-18367.85527411</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>491.4232</v>
       </c>
       <c r="G10" t="n">
-        <v>-18859.27847411</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>4944.0952</v>
       </c>
       <c r="G11" t="n">
-        <v>-23803.37367411</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>4155.3136</v>
       </c>
       <c r="G12" t="n">
-        <v>-23803.37367411</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>591.571</v>
       </c>
       <c r="G13" t="n">
-        <v>-23803.37367411</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1984.9622</v>
       </c>
       <c r="G14" t="n">
-        <v>-21818.41147411</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3917.8978</v>
       </c>
       <c r="G15" t="n">
-        <v>-25736.30927411</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>6046.446</v>
       </c>
       <c r="G16" t="n">
-        <v>-19689.86327411</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>1408.6823</v>
       </c>
       <c r="G17" t="n">
-        <v>-18281.18097411</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1251.1902</v>
       </c>
       <c r="G18" t="n">
-        <v>-17029.99077411</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2480</v>
       </c>
       <c r="G19" t="n">
-        <v>-14549.99077411</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>208.0624</v>
       </c>
       <c r="G20" t="n">
-        <v>-14549.99077411</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>93.50579999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-14549.99077411</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>-14499.99077411</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1382.375</v>
       </c>
       <c r="G23" t="n">
-        <v>-15882.36577411</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>14442.6962</v>
       </c>
       <c r="G24" t="n">
-        <v>-30325.06197410999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>682.0984999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-29642.96347410999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1316.912</v>
       </c>
       <c r="G26" t="n">
-        <v>-29642.96347410999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>3606.622</v>
       </c>
       <c r="G27" t="n">
-        <v>-33249.58547411</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>716.2103</v>
       </c>
       <c r="G28" t="n">
-        <v>-32533.37517411</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>56.6598</v>
       </c>
       <c r="G29" t="n">
-        <v>-32590.03497411</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>197</v>
       </c>
       <c r="G30" t="n">
-        <v>-32787.03497411</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>824.6567</v>
       </c>
       <c r="G31" t="n">
-        <v>-33611.69167411</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>425.7342</v>
       </c>
       <c r="G32" t="n">
-        <v>-33185.95747411</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>562.481</v>
       </c>
       <c r="G33" t="n">
-        <v>-33748.43847411</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>259.0777</v>
       </c>
       <c r="G34" t="n">
-        <v>-34007.51617411</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1944.447</v>
       </c>
       <c r="G35" t="n">
-        <v>-32063.06917411</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>951.0773</v>
       </c>
       <c r="G36" t="n">
-        <v>-32063.06917411</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>634.0515</v>
       </c>
       <c r="G37" t="n">
-        <v>-32063.06917411</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>845.402</v>
       </c>
       <c r="G38" t="n">
-        <v>-32908.47117411</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>60.7187</v>
       </c>
       <c r="G39" t="n">
-        <v>-32847.75247411001</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>302.1125</v>
       </c>
       <c r="G40" t="n">
-        <v>-33149.86497411001</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>127.8875</v>
       </c>
       <c r="G41" t="n">
-        <v>-33149.86497411001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>566.7754</v>
       </c>
       <c r="G42" t="n">
-        <v>-33716.64037411001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>187.5745</v>
       </c>
       <c r="G43" t="n">
-        <v>-33529.06587411001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>240.2192</v>
       </c>
       <c r="G44" t="n">
-        <v>-33769.28507411</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>603.2104</v>
       </c>
       <c r="G45" t="n">
-        <v>-33769.28507411</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>82.5043</v>
       </c>
       <c r="G46" t="n">
-        <v>-33851.78937411001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1068.593</v>
       </c>
       <c r="G47" t="n">
-        <v>-34920.38237411001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>520</v>
       </c>
       <c r="G48" t="n">
-        <v>-34400.38237411001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>461.7929</v>
       </c>
       <c r="G49" t="n">
-        <v>-34862.17527411001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>832.2246</v>
       </c>
       <c r="G50" t="n">
-        <v>-35694.39987411001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>53.7683</v>
       </c>
       <c r="G51" t="n">
-        <v>-35640.63157411</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2.9541</v>
       </c>
       <c r="G52" t="n">
-        <v>-35637.67747411</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>556.7504</v>
       </c>
       <c r="G53" t="n">
-        <v>-36194.42787411</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>452.2728</v>
       </c>
       <c r="G54" t="n">
-        <v>-35742.15507411</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2</v>
       </c>
       <c r="G55" t="n">
-        <v>-35740.15507411</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>209.5429</v>
       </c>
       <c r="G56" t="n">
-        <v>-35740.15507411</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>605.9624</v>
       </c>
       <c r="G57" t="n">
-        <v>-36346.11747411</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>202.5149</v>
       </c>
       <c r="G58" t="n">
-        <v>-36548.63237411</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,19 @@
         <v>7.028</v>
       </c>
       <c r="G59" t="n">
-        <v>-36555.66037411</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>394.1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>394.1</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2187,23 @@
         <v>3.1396</v>
       </c>
       <c r="G60" t="n">
-        <v>-36552.52077410999</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>391.2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2225,21 @@
         <v>9.1257</v>
       </c>
       <c r="G61" t="n">
-        <v>-36561.64647410999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>394.1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2261,15 @@
         <v>9</v>
       </c>
       <c r="G62" t="n">
-        <v>-36570.64647410999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2291,15 @@
         <v>1.3</v>
       </c>
       <c r="G63" t="n">
-        <v>-36569.34647410999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,22 +2321,15 @@
         <v>396.90115985</v>
       </c>
       <c r="G64" t="n">
-        <v>-36966.24763395999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>396.7</v>
-      </c>
-      <c r="J64" t="n">
-        <v>396.7</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2531,24 +2351,15 @@
         <v>1.3</v>
       </c>
       <c r="G65" t="n">
-        <v>-36964.94763395999</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>396.7</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2570,24 +2381,15 @@
         <v>620</v>
       </c>
       <c r="G66" t="n">
-        <v>-37584.94763395999</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>396.7</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2609,22 +2411,15 @@
         <v>1.3</v>
       </c>
       <c r="G67" t="n">
-        <v>-37583.64763395998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>396.8</v>
-      </c>
-      <c r="J67" t="n">
-        <v>396.8</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2646,26 +2441,15 @@
         <v>75.1639</v>
       </c>
       <c r="G68" t="n">
-        <v>-37658.81153395998</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>396.9</v>
-      </c>
-      <c r="J68" t="n">
-        <v>396.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2687,26 +2471,15 @@
         <v>902.2756000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-37658.81153395998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>395</v>
-      </c>
-      <c r="J69" t="n">
-        <v>396.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2728,22 +2501,15 @@
         <v>98.727</v>
       </c>
       <c r="G70" t="n">
-        <v>-37658.81153395998</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>395</v>
-      </c>
-      <c r="J70" t="n">
-        <v>395</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2765,26 +2531,15 @@
         <v>2.1795</v>
       </c>
       <c r="G71" t="n">
-        <v>-37658.81153395998</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>395</v>
-      </c>
-      <c r="J71" t="n">
-        <v>395</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2806,26 +2561,15 @@
         <v>554.3434999999999</v>
       </c>
       <c r="G72" t="n">
-        <v>-37104.46803395998</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>395</v>
-      </c>
-      <c r="J72" t="n">
-        <v>395</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2847,26 +2591,15 @@
         <v>1610</v>
       </c>
       <c r="G73" t="n">
-        <v>-38714.46803395998</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>398.8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>395</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2888,26 +2621,15 @@
         <v>78.408</v>
       </c>
       <c r="G74" t="n">
-        <v>-38636.06003395998</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>395</v>
-      </c>
-      <c r="J74" t="n">
-        <v>395</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2929,26 +2651,15 @@
         <v>1834.6771</v>
       </c>
       <c r="G75" t="n">
-        <v>-38636.06003395998</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="J75" t="n">
-        <v>395</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2970,24 +2681,15 @@
         <v>204</v>
       </c>
       <c r="G76" t="n">
-        <v>-38636.06003395998</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>395</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3009,26 +2711,15 @@
         <v>547.96</v>
       </c>
       <c r="G77" t="n">
-        <v>-38636.06003395998</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="J77" t="n">
-        <v>395</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3050,26 +2741,15 @@
         <v>8906.210499999999</v>
       </c>
       <c r="G78" t="n">
-        <v>-38636.06003395998</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="J78" t="n">
-        <v>395</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3091,26 +2771,15 @@
         <v>1990</v>
       </c>
       <c r="G79" t="n">
-        <v>-40626.06003395998</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>395</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3132,26 +2801,15 @@
         <v>3368.4142</v>
       </c>
       <c r="G80" t="n">
-        <v>-40626.06003395998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>395</v>
-      </c>
-      <c r="J80" t="n">
-        <v>395</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3173,26 +2831,19 @@
         <v>56.8922</v>
       </c>
       <c r="G81" t="n">
-        <v>-40682.95223395998</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="I81" t="n">
         <v>395</v>
       </c>
-      <c r="J81" t="n">
-        <v>395</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3214,26 +2865,23 @@
         <v>43.2918</v>
       </c>
       <c r="G82" t="n">
-        <v>-40726.24403395998</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>394.1</v>
       </c>
       <c r="I82" t="n">
-        <v>394.1</v>
-      </c>
-      <c r="J82" t="n">
         <v>395</v>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3255,26 +2903,23 @@
         <v>734.9316</v>
       </c>
       <c r="G83" t="n">
-        <v>-40726.24403395998</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>393</v>
       </c>
       <c r="I83" t="n">
-        <v>393</v>
-      </c>
-      <c r="J83" t="n">
         <v>395</v>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3296,26 +2941,19 @@
         <v>1.3</v>
       </c>
       <c r="G84" t="n">
-        <v>-40724.94403395998</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>393</v>
       </c>
       <c r="I84" t="n">
         <v>393</v>
       </c>
-      <c r="J84" t="n">
-        <v>395</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3337,26 +2975,23 @@
         <v>1.3</v>
       </c>
       <c r="G85" t="n">
-        <v>-40723.64403395997</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>394.9</v>
       </c>
       <c r="I85" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="J85" t="n">
-        <v>395</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>393</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3378,26 +3013,21 @@
         <v>1421.36106908</v>
       </c>
       <c r="G86" t="n">
-        <v>-39302.28296487997</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
-        <v>395.6</v>
-      </c>
-      <c r="J86" t="n">
-        <v>395</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>393</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3419,26 +3049,23 @@
         <v>4349.8273</v>
       </c>
       <c r="G87" t="n">
-        <v>-34952.45566487998</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>396.6</v>
       </c>
       <c r="I87" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>395</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>393</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3460,26 +3087,21 @@
         <v>552</v>
       </c>
       <c r="G88" t="n">
-        <v>-35504.45566487998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="n">
-        <v>397.7</v>
-      </c>
-      <c r="J88" t="n">
-        <v>395</v>
-      </c>
-      <c r="K88" t="inlineStr">
+        <v>393</v>
+      </c>
+      <c r="J88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3501,26 +3123,21 @@
         <v>9.99</v>
       </c>
       <c r="G89" t="n">
-        <v>-35514.44566487998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>395</v>
-      </c>
-      <c r="K89" t="inlineStr">
+        <v>393</v>
+      </c>
+      <c r="J89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3542,26 +3159,23 @@
         <v>1.7629</v>
       </c>
       <c r="G90" t="n">
-        <v>-35512.68276487997</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>394.9</v>
       </c>
       <c r="I90" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="J90" t="n">
-        <v>395</v>
-      </c>
-      <c r="K90" t="inlineStr">
+        <v>393</v>
+      </c>
+      <c r="J90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3583,26 +3197,23 @@
         <v>99.407</v>
       </c>
       <c r="G91" t="n">
-        <v>-35512.68276487997</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>397.6</v>
       </c>
       <c r="I91" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="J91" t="n">
-        <v>395</v>
-      </c>
-      <c r="K91" t="inlineStr">
+        <v>393</v>
+      </c>
+      <c r="J91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3624,26 +3235,23 @@
         <v>6.5</v>
       </c>
       <c r="G92" t="n">
-        <v>-35519.18276487997</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>397.6</v>
       </c>
       <c r="I92" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="J92" t="n">
-        <v>395</v>
-      </c>
-      <c r="K92" t="inlineStr">
+        <v>393</v>
+      </c>
+      <c r="J92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3665,26 +3273,23 @@
         <v>1070.0749</v>
       </c>
       <c r="G93" t="n">
-        <v>-34449.10786487997</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>396.9</v>
       </c>
       <c r="I93" t="n">
-        <v>396.9</v>
-      </c>
-      <c r="J93" t="n">
-        <v>395</v>
-      </c>
-      <c r="K93" t="inlineStr">
+        <v>393</v>
+      </c>
+      <c r="J93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3706,26 +3311,23 @@
         <v>26.8749</v>
       </c>
       <c r="G94" t="n">
-        <v>-34449.10786487997</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>397.6</v>
       </c>
       <c r="I94" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>395</v>
-      </c>
-      <c r="K94" t="inlineStr">
+        <v>393</v>
+      </c>
+      <c r="J94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3747,26 +3349,21 @@
         <v>1294.63</v>
       </c>
       <c r="G95" t="n">
-        <v>-35743.73786487997</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>397.6</v>
-      </c>
-      <c r="J95" t="n">
-        <v>395</v>
-      </c>
-      <c r="K95" t="inlineStr">
+        <v>393</v>
+      </c>
+      <c r="J95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3788,26 +3385,21 @@
         <v>30</v>
       </c>
       <c r="G96" t="n">
-        <v>-35713.73786487997</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>393.4</v>
-      </c>
-      <c r="J96" t="n">
-        <v>395</v>
-      </c>
-      <c r="K96" t="inlineStr">
+        <v>393</v>
+      </c>
+      <c r="J96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3829,26 +3421,21 @@
         <v>4339.8273</v>
       </c>
       <c r="G97" t="n">
-        <v>-40053.56516487997</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="J97" t="n">
-        <v>395</v>
-      </c>
-      <c r="K97" t="inlineStr">
+        <v>393</v>
+      </c>
+      <c r="J97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3870,26 +3457,21 @@
         <v>1.3</v>
       </c>
       <c r="G98" t="n">
-        <v>-40052.26516487997</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>390.1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>395</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>393</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1.004160305343512</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3911,26 +3493,15 @@
         <v>1520.5744</v>
       </c>
       <c r="G99" t="n">
-        <v>-41572.83956487996</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>395</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3952,26 +3523,15 @@
         <v>1690.0554</v>
       </c>
       <c r="G100" t="n">
-        <v>-39882.78416487997</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>392</v>
-      </c>
-      <c r="J100" t="n">
-        <v>395</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3993,26 +3553,15 @@
         <v>622.7421210700001</v>
       </c>
       <c r="G101" t="n">
-        <v>-40505.52628594996</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>396.6</v>
-      </c>
-      <c r="J101" t="n">
-        <v>395</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4034,26 +3583,15 @@
         <v>2.5298</v>
       </c>
       <c r="G102" t="n">
-        <v>-40508.05608594996</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>394.8</v>
-      </c>
-      <c r="J102" t="n">
-        <v>395</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4075,26 +3613,15 @@
         <v>2800.2</v>
       </c>
       <c r="G103" t="n">
-        <v>-40508.05608594996</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="J103" t="n">
-        <v>395</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4116,26 +3643,15 @@
         <v>1071.3659</v>
       </c>
       <c r="G104" t="n">
-        <v>-41579.42198594996</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>394.6</v>
-      </c>
-      <c r="J104" t="n">
-        <v>395</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4157,26 +3673,15 @@
         <v>405.0596</v>
       </c>
       <c r="G105" t="n">
-        <v>-41984.48158594996</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>393.8</v>
-      </c>
-      <c r="J105" t="n">
-        <v>395</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4198,26 +3703,15 @@
         <v>10.6338</v>
       </c>
       <c r="G106" t="n">
-        <v>-41995.11538594996</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>393.2</v>
-      </c>
-      <c r="J106" t="n">
-        <v>395</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4239,26 +3733,15 @@
         <v>612.3167</v>
       </c>
       <c r="G107" t="n">
-        <v>-42607.43208594996</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>392</v>
-      </c>
-      <c r="J107" t="n">
-        <v>395</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4280,26 +3763,21 @@
         <v>3709.8409</v>
       </c>
       <c r="G108" t="n">
-        <v>-38897.59118594996</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
         <v>391.1</v>
       </c>
-      <c r="J108" t="n">
-        <v>395</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4321,26 +3799,21 @@
         <v>90.4105</v>
       </c>
       <c r="G109" t="n">
-        <v>-38897.59118594996</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
         <v>394.9</v>
       </c>
-      <c r="J109" t="n">
-        <v>395</v>
-      </c>
-      <c r="K109" t="inlineStr">
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4362,26 +3835,19 @@
         <v>5.0596</v>
       </c>
       <c r="G110" t="n">
-        <v>-38902.65078594996</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>394.9</v>
-      </c>
-      <c r="J110" t="n">
-        <v>395</v>
-      </c>
-      <c r="K110" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4403,26 +3869,19 @@
         <v>2.5298</v>
       </c>
       <c r="G111" t="n">
-        <v>-38905.18058594996</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>394.3</v>
-      </c>
-      <c r="J111" t="n">
-        <v>395</v>
-      </c>
-      <c r="K111" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4444,26 +3903,21 @@
         <v>2.5298</v>
       </c>
       <c r="G112" t="n">
-        <v>-38907.71038594995</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
         <v>394.2</v>
       </c>
-      <c r="J112" t="n">
-        <v>395</v>
-      </c>
-      <c r="K112" t="inlineStr">
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4485,26 +3939,21 @@
         <v>1164.7026</v>
       </c>
       <c r="G113" t="n">
-        <v>-37743.00778594996</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
         <v>394.1</v>
       </c>
-      <c r="J113" t="n">
-        <v>395</v>
-      </c>
-      <c r="K113" t="inlineStr">
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4526,26 +3975,19 @@
         <v>174.74</v>
       </c>
       <c r="G114" t="n">
-        <v>-37917.74778594996</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>399.7</v>
-      </c>
-      <c r="J114" t="n">
-        <v>395</v>
-      </c>
-      <c r="K114" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4567,26 +4009,21 @@
         <v>275</v>
       </c>
       <c r="G115" t="n">
-        <v>-38192.74778594996</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
         <v>395</v>
       </c>
-      <c r="J115" t="n">
-        <v>395</v>
-      </c>
-      <c r="K115" t="inlineStr">
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4608,26 +4045,21 @@
         <v>1562.7062</v>
       </c>
       <c r="G116" t="n">
-        <v>-39755.45398594996</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
         <v>394.1</v>
       </c>
-      <c r="J116" t="n">
-        <v>395</v>
-      </c>
-      <c r="K116" t="inlineStr">
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4649,26 +4081,21 @@
         <v>1793.8432</v>
       </c>
       <c r="G117" t="n">
-        <v>-41549.29718594996</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
         <v>393.8</v>
       </c>
-      <c r="J117" t="n">
-        <v>395</v>
-      </c>
-      <c r="K117" t="inlineStr">
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4690,26 +4117,21 @@
         <v>732.1371</v>
       </c>
       <c r="G118" t="n">
-        <v>-42281.43428594996</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
         <v>392.9</v>
       </c>
-      <c r="J118" t="n">
-        <v>395</v>
-      </c>
-      <c r="K118" t="inlineStr">
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4731,26 +4153,21 @@
         <v>2388.196</v>
       </c>
       <c r="G119" t="n">
-        <v>-44669.63028594996</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
         <v>392.1</v>
       </c>
-      <c r="J119" t="n">
-        <v>395</v>
-      </c>
-      <c r="K119" t="inlineStr">
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4772,26 +4189,21 @@
         <v>5.3436</v>
       </c>
       <c r="G120" t="n">
-        <v>-44664.28668594996</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
         <v>390.1</v>
       </c>
-      <c r="J120" t="n">
-        <v>395</v>
-      </c>
-      <c r="K120" t="inlineStr">
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4813,26 +4225,21 @@
         <v>13941.5952</v>
       </c>
       <c r="G121" t="n">
-        <v>-30722.69148594996</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
         <v>394.1</v>
       </c>
-      <c r="J121" t="n">
-        <v>395</v>
-      </c>
-      <c r="K121" t="inlineStr">
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4854,26 +4261,21 @@
         <v>1138.8634</v>
       </c>
       <c r="G122" t="n">
-        <v>-31861.55488594995</v>
+        <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
         <v>398.2</v>
       </c>
-      <c r="J122" t="n">
-        <v>395</v>
-      </c>
-      <c r="K122" t="inlineStr">
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4895,26 +4297,19 @@
         <v>2658.2584</v>
       </c>
       <c r="G123" t="n">
-        <v>-29203.29648594996</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>394.7</v>
-      </c>
-      <c r="J123" t="n">
-        <v>395</v>
-      </c>
-      <c r="K123" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4936,26 +4331,19 @@
         <v>304.8379</v>
       </c>
       <c r="G124" t="n">
-        <v>-29508.13438594995</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>394.8</v>
-      </c>
-      <c r="J124" t="n">
-        <v>395</v>
-      </c>
-      <c r="K124" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4977,26 +4365,21 @@
         <v>2916.5453</v>
       </c>
       <c r="G125" t="n">
-        <v>-26591.58908594995</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
         <v>392</v>
       </c>
-      <c r="J125" t="n">
-        <v>395</v>
-      </c>
-      <c r="K125" t="inlineStr">
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5018,26 +4401,21 @@
         <v>1138.8634</v>
       </c>
       <c r="G126" t="n">
-        <v>-27730.45248594995</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
         <v>393.9</v>
       </c>
-      <c r="J126" t="n">
-        <v>395</v>
-      </c>
-      <c r="K126" t="inlineStr">
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5059,26 +4437,21 @@
         <v>3515.5503</v>
       </c>
       <c r="G127" t="n">
-        <v>-31246.00278594995</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
         <v>388.6</v>
       </c>
-      <c r="J127" t="n">
-        <v>395</v>
-      </c>
-      <c r="K127" t="inlineStr">
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5100,26 +4473,21 @@
         <v>144.8056</v>
       </c>
       <c r="G128" t="n">
-        <v>-31101.19718594995</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
         <v>387.3</v>
       </c>
-      <c r="J128" t="n">
-        <v>395</v>
-      </c>
-      <c r="K128" t="inlineStr">
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5141,26 +4509,21 @@
         <v>130.325</v>
       </c>
       <c r="G129" t="n">
-        <v>-30970.87218594995</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
         <v>388.4</v>
       </c>
-      <c r="J129" t="n">
-        <v>395</v>
-      </c>
-      <c r="K129" t="inlineStr">
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5182,26 +4545,21 @@
         <v>1270.0026</v>
       </c>
       <c r="G130" t="n">
-        <v>-29700.86958594995</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
         <v>388.5</v>
       </c>
-      <c r="J130" t="n">
-        <v>395</v>
-      </c>
-      <c r="K130" t="inlineStr">
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5223,24 +4581,21 @@
         <v>15409.3015</v>
       </c>
       <c r="G131" t="n">
-        <v>-14291.56808594995</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>393.7</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>395</v>
-      </c>
-      <c r="K131" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5262,24 +4617,19 @@
         <v>25998.5831</v>
       </c>
       <c r="G132" t="n">
-        <v>11707.01501405005</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>395</v>
-      </c>
-      <c r="K132" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5301,24 +4651,19 @@
         <v>14046.5211</v>
       </c>
       <c r="G133" t="n">
-        <v>25753.53611405005</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>395</v>
-      </c>
-      <c r="K133" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5340,24 +4685,19 @@
         <v>8731.647999999999</v>
       </c>
       <c r="G134" t="n">
-        <v>34485.18411405005</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>395</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1.022341772151899</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5379,18 +4719,19 @@
         <v>21198.344</v>
       </c>
       <c r="G135" t="n">
-        <v>13286.84011405005</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5412,18 +4753,19 @@
         <v>7156.2954</v>
       </c>
       <c r="G136" t="n">
-        <v>6130.544714050046</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5445,18 +4787,17 @@
         <v>10438.2985</v>
       </c>
       <c r="G137" t="n">
-        <v>-4307.753785949954</v>
-      </c>
-      <c r="H137" t="n">
         <v>2</v>
       </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5478,18 +4819,15 @@
         <v>106.03</v>
       </c>
       <c r="G138" t="n">
-        <v>-4201.723785949955</v>
-      </c>
-      <c r="H138" t="n">
         <v>2</v>
       </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5511,18 +4849,15 @@
         <v>1.7889</v>
       </c>
       <c r="G139" t="n">
-        <v>-4199.934885949955</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5544,18 +4879,15 @@
         <v>4730.0157</v>
       </c>
       <c r="G140" t="n">
-        <v>-8929.950585949955</v>
-      </c>
-      <c r="H140" t="n">
         <v>2</v>
       </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5577,18 +4909,15 @@
         <v>3385.2863</v>
       </c>
       <c r="G141" t="n">
-        <v>-12315.23688594995</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5610,18 +4939,15 @@
         <v>870</v>
       </c>
       <c r="G142" t="n">
-        <v>-11445.23688594995</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5643,18 +4969,15 @@
         <v>2040.6622</v>
       </c>
       <c r="G143" t="n">
-        <v>-13485.89908594996</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5676,18 +4999,15 @@
         <v>2.0753</v>
       </c>
       <c r="G144" t="n">
-        <v>-13483.82378594995</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5709,18 +5029,15 @@
         <v>4050.632</v>
       </c>
       <c r="G145" t="n">
-        <v>-17534.45578594995</v>
-      </c>
-      <c r="H145" t="n">
         <v>2</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5742,18 +5059,15 @@
         <v>1245.6759</v>
       </c>
       <c r="G146" t="n">
-        <v>-16288.77988594995</v>
-      </c>
-      <c r="H146" t="n">
         <v>2</v>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
